--- a/England National League/England National League.xlsx
+++ b/England National League/England National League.xlsx
@@ -52634,7 +52634,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>6871010</v>
+        <v>6883044</v>
       </c>
       <c r="C586" t="s">
         <v>28</v>
@@ -52646,76 +52646,76 @@
         <v>45292.5</v>
       </c>
       <c r="F586" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G586" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H586">
         <v>2</v>
       </c>
       <c r="I586">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J586" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K586">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L586">
         <v>3.4</v>
       </c>
       <c r="M586">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N586">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O586">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P586">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q586">
         <v>-0.25</v>
       </c>
       <c r="R586">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S586">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T586">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U586">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V586">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W586">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X586">
         <v>-1</v>
       </c>
       <c r="Y586">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z586">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA586">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB586">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC586">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="587" spans="1:29">
@@ -52723,7 +52723,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6883044</v>
+        <v>6873259</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52735,73 +52735,73 @@
         <v>45292.5</v>
       </c>
       <c r="F587" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G587" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I587">
+        <v>4</v>
+      </c>
+      <c r="J587" t="s">
+        <v>59</v>
+      </c>
+      <c r="K587">
+        <v>2.4</v>
+      </c>
+      <c r="L587">
+        <v>3.5</v>
+      </c>
+      <c r="M587">
+        <v>2.6</v>
+      </c>
+      <c r="N587">
         <v>3</v>
       </c>
-      <c r="J587" t="s">
-        <v>61</v>
-      </c>
-      <c r="K587">
-        <v>2.2</v>
-      </c>
-      <c r="L587">
-        <v>3.4</v>
-      </c>
-      <c r="M587">
-        <v>3</v>
-      </c>
-      <c r="N587">
-        <v>2.25</v>
-      </c>
       <c r="O587">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P587">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q587">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R587">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S587">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T587">
         <v>2.5</v>
       </c>
       <c r="U587">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V587">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W587">
         <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y587">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z587">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA587">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB587">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52812,7 +52812,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6873259</v>
+        <v>6871010</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52824,76 +52824,76 @@
         <v>45292.5</v>
       </c>
       <c r="F588" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G588" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H588">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I588">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K588">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L588">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M588">
         <v>2.6</v>
       </c>
       <c r="N588">
+        <v>2.375</v>
+      </c>
+      <c r="O588">
+        <v>3.6</v>
+      </c>
+      <c r="P588">
+        <v>2.75</v>
+      </c>
+      <c r="Q588">
+        <v>-0.25</v>
+      </c>
+      <c r="R588">
+        <v>1.975</v>
+      </c>
+      <c r="S588">
+        <v>1.725</v>
+      </c>
+      <c r="T588">
         <v>3</v>
       </c>
-      <c r="O588">
-        <v>3.75</v>
-      </c>
-      <c r="P588">
-        <v>2.15</v>
-      </c>
-      <c r="Q588">
-        <v>0.25</v>
-      </c>
-      <c r="R588">
-        <v>1.875</v>
-      </c>
-      <c r="S588">
-        <v>1.925</v>
-      </c>
-      <c r="T588">
-        <v>2.5</v>
-      </c>
       <c r="U588">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V588">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X588">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA588">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB588">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC588">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -54592,7 +54592,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>6954834</v>
+        <v>6873187</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54604,58 +54604,58 @@
         <v>45311.5</v>
       </c>
       <c r="F608" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G608" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I608">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J608" t="s">
         <v>60</v>
       </c>
       <c r="K608">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="L608">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M608">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="N608">
+        <v>2.1</v>
+      </c>
+      <c r="O608">
         <v>3.6</v>
       </c>
-      <c r="O608">
-        <v>4</v>
-      </c>
       <c r="P608">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q608">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R608">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S608">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T608">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U608">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V608">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W608">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X608">
         <v>-1</v>
@@ -54664,16 +54664,16 @@
         <v>-1</v>
       </c>
       <c r="Z608">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA608">
         <v>-1</v>
       </c>
       <c r="AB608">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC608">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -54681,7 +54681,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>6873187</v>
+        <v>6954834</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54693,58 +54693,58 @@
         <v>45311.5</v>
       </c>
       <c r="F609" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G609" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H609">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I609">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J609" t="s">
         <v>60</v>
       </c>
       <c r="K609">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="L609">
+        <v>4.8</v>
+      </c>
+      <c r="M609">
+        <v>1.4</v>
+      </c>
+      <c r="N609">
         <v>3.6</v>
       </c>
-      <c r="M609">
-        <v>2.8</v>
-      </c>
-      <c r="N609">
-        <v>2.1</v>
-      </c>
       <c r="O609">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P609">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q609">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R609">
+        <v>1.9</v>
+      </c>
+      <c r="S609">
+        <v>1.9</v>
+      </c>
+      <c r="T609">
+        <v>3</v>
+      </c>
+      <c r="U609">
         <v>1.875</v>
       </c>
-      <c r="S609">
+      <c r="V609">
         <v>1.925</v>
       </c>
-      <c r="T609">
-        <v>2.5</v>
-      </c>
-      <c r="U609">
-        <v>1.825</v>
-      </c>
-      <c r="V609">
-        <v>1.975</v>
-      </c>
       <c r="W609">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X609">
         <v>-1</v>
@@ -54753,16 +54753,16 @@
         <v>-1</v>
       </c>
       <c r="Z609">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA609">
         <v>-1</v>
       </c>
       <c r="AB609">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC609">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -55037,7 +55037,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>6873191</v>
+        <v>6873192</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55049,10 +55049,10 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F613" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G613" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H613">
         <v>0</v>
@@ -55064,31 +55064,31 @@
         <v>61</v>
       </c>
       <c r="K613">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L613">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M613">
         <v>3.6</v>
       </c>
       <c r="N613">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O613">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P613">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q613">
         <v>-0.25</v>
       </c>
       <c r="R613">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S613">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T613">
         <v>2.25</v>
@@ -55106,13 +55106,13 @@
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Z613">
         <v>-1</v>
       </c>
       <c r="AA613">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB613">
         <v>-1</v>
@@ -55126,7 +55126,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>6873192</v>
+        <v>6990883</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55138,49 +55138,49 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F614" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G614" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614">
         <v>1</v>
       </c>
       <c r="J614" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K614">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L614">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M614">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N614">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O614">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P614">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q614">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R614">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S614">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T614">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U614">
         <v>1.8</v>
@@ -55189,25 +55189,25 @@
         <v>2</v>
       </c>
       <c r="W614">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X614">
         <v>-1</v>
       </c>
       <c r="Y614">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z614">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA614">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB614">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC614">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55393,7 +55393,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>6990883</v>
+        <v>6873191</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55405,49 +55405,49 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F617" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G617" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617">
         <v>1</v>
       </c>
       <c r="J617" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K617">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L617">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M617">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N617">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O617">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P617">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q617">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R617">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S617">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T617">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U617">
         <v>1.8</v>
@@ -55456,25 +55456,25 @@
         <v>2</v>
       </c>
       <c r="W617">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X617">
         <v>-1</v>
       </c>
       <c r="Y617">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z617">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA617">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB617">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC617">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -58063,7 +58063,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>7658752</v>
+        <v>7704172</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58075,76 +58075,76 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F647" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G647" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647">
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K647">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L647">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M647">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N647">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O647">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P647">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q647">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R647">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S647">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T647">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U647">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V647">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W647">
         <v>-1</v>
       </c>
       <c r="X647">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y647">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z647">
         <v>-1</v>
       </c>
       <c r="AA647">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB647">
         <v>-1</v>
       </c>
       <c r="AC647">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58152,7 +58152,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>7704172</v>
+        <v>7658752</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58164,76 +58164,76 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F648" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G648" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I648">
         <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K648">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L648">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M648">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N648">
+        <v>1.5</v>
+      </c>
+      <c r="O648">
+        <v>4.75</v>
+      </c>
+      <c r="P648">
+        <v>5.5</v>
+      </c>
+      <c r="Q648">
+        <v>-1</v>
+      </c>
+      <c r="R648">
+        <v>1.75</v>
+      </c>
+      <c r="S648">
         <v>1.95</v>
       </c>
-      <c r="O648">
+      <c r="T648">
+        <v>3.25</v>
+      </c>
+      <c r="U648">
+        <v>1.975</v>
+      </c>
+      <c r="V648">
+        <v>1.825</v>
+      </c>
+      <c r="W648">
+        <v>-1</v>
+      </c>
+      <c r="X648">
         <v>3.75</v>
       </c>
-      <c r="P648">
-        <v>3.5</v>
-      </c>
-      <c r="Q648">
-        <v>-0.5</v>
-      </c>
-      <c r="R648">
-        <v>1.925</v>
-      </c>
-      <c r="S648">
-        <v>1.875</v>
-      </c>
-      <c r="T648">
-        <v>2.75</v>
-      </c>
-      <c r="U648">
-        <v>1.8</v>
-      </c>
-      <c r="V648">
-        <v>2</v>
-      </c>
-      <c r="W648">
-        <v>-1</v>
-      </c>
-      <c r="X648">
-        <v>-1</v>
-      </c>
       <c r="Y648">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z648">
         <v>-1</v>
       </c>
       <c r="AA648">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB648">
         <v>-1</v>
       </c>
       <c r="AC648">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58241,7 +58241,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>7746287</v>
+        <v>7732287</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58253,76 +58253,76 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F649" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G649" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I649">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J649" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K649">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L649">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M649">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N649">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O649">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P649">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q649">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R649">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S649">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T649">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U649">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V649">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W649">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X649">
         <v>-1</v>
       </c>
       <c r="Y649">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z649">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA649">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB649">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC649">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58330,7 +58330,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>7732287</v>
+        <v>7746287</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58342,76 +58342,76 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F650" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G650" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I650">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J650" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K650">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L650">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M650">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N650">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O650">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P650">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q650">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R650">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S650">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T650">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U650">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V650">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W650">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X650">
         <v>-1</v>
       </c>
       <c r="Y650">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z650">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA650">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB650">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC650">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -62424,7 +62424,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>7791093</v>
+        <v>7791015</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62436,40 +62436,40 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F696" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G696" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K696">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L696">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M696">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N696">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O696">
         <v>3.75</v>
       </c>
       <c r="P696">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q696">
         <v>0.5</v>
       </c>
       <c r="R696">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S696">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T696">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U696">
         <v>1.9</v>
@@ -62498,7 +62498,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>7791015</v>
+        <v>7791093</v>
       </c>
       <c r="C697" t="s">
         <v>28</v>
@@ -62510,40 +62510,40 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F697" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G697" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K697">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L697">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M697">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N697">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O697">
         <v>3.75</v>
       </c>
       <c r="P697">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q697">
         <v>0.5</v>
       </c>
       <c r="R697">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S697">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T697">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U697">
         <v>1.9</v>
@@ -62720,7 +62720,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>7749515</v>
+        <v>7762199</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62732,46 +62732,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F700" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G700" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K700">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L700">
         <v>3.4</v>
       </c>
       <c r="M700">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N700">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O700">
         <v>3.4</v>
       </c>
       <c r="P700">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q700">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R700">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S700">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T700">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U700">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V700">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W700">
         <v>0</v>
@@ -62794,7 +62794,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>7762199</v>
+        <v>7749515</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62806,46 +62806,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F701" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G701" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K701">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L701">
         <v>3.4</v>
       </c>
       <c r="M701">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N701">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O701">
         <v>3.4</v>
       </c>
       <c r="P701">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q701">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R701">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S701">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T701">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U701">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V701">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W701">
         <v>0</v>

--- a/England National League/England National League.xlsx
+++ b/England National League/England National League.xlsx
@@ -6829,7 +6829,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6873023</v>
+        <v>6873211</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -6838,13 +6838,13 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -6853,43 +6853,43 @@
         <v>53</v>
       </c>
       <c r="J74">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="M74">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="P74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q74">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T74">
+        <v>1.85</v>
+      </c>
+      <c r="U74">
         <v>1.95</v>
       </c>
-      <c r="U74">
-        <v>1.85</v>
-      </c>
       <c r="V74">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -6898,16 +6898,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6915,7 +6915,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6873211</v>
+        <v>6873212</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -6924,76 +6924,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J75">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="K75">
         <v>3.4</v>
       </c>
       <c r="L75">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N75">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O75">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P75">
         <v>0.25</v>
       </c>
       <c r="Q75">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7001,7 +7001,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6873212</v>
+        <v>6873021</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7010,76 +7010,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J76">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="K76">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M76">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N76">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O76">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R76">
         <v>1.95</v>
       </c>
       <c r="S76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T76">
+        <v>1.925</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="U76">
-        <v>1.925</v>
-      </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W76">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7087,7 +7087,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6873021</v>
+        <v>6873210</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7096,73 +7096,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
         <v>4</v>
       </c>
-      <c r="H77">
+      <c r="I77" t="s">
+        <v>55</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>3.6</v>
+      </c>
+      <c r="L77">
+        <v>1.7</v>
+      </c>
+      <c r="M77">
+        <v>4.333</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>1.571</v>
+      </c>
+      <c r="P77">
         <v>1</v>
       </c>
-      <c r="I77" t="s">
-        <v>53</v>
-      </c>
-      <c r="J77">
-        <v>2.375</v>
-      </c>
-      <c r="K77">
-        <v>3.3</v>
-      </c>
-      <c r="L77">
-        <v>2.55</v>
-      </c>
-      <c r="M77">
-        <v>1.909</v>
-      </c>
-      <c r="N77">
-        <v>3.5</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
-        <v>-0.25</v>
-      </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
         <v>3</v>
       </c>
       <c r="T77">
+        <v>1.875</v>
+      </c>
+      <c r="U77">
         <v>1.925</v>
       </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
       <c r="V77">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y77">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7173,7 +7173,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6873210</v>
+        <v>6873023</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7182,64 +7182,64 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J78">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="K78">
         <v>3.6</v>
       </c>
       <c r="L78">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="N78">
         <v>4</v>
       </c>
       <c r="O78">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q78">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -7248,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -9065,7 +9065,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6873040</v>
+        <v>6873039</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9074,10 +9074,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9089,61 +9089,61 @@
         <v>54</v>
       </c>
       <c r="J100">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K100">
         <v>3.4</v>
       </c>
       <c r="L100">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M100">
+        <v>2.45</v>
+      </c>
+      <c r="N100">
+        <v>3.3</v>
+      </c>
+      <c r="O100">
+        <v>2.625</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>1.8</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>2.5</v>
+      </c>
+      <c r="T100">
         <v>1.95</v>
       </c>
-      <c r="N100">
-        <v>3.6</v>
-      </c>
-      <c r="O100">
-        <v>3.25</v>
-      </c>
-      <c r="P100">
-        <v>-0.5</v>
-      </c>
-      <c r="Q100">
-        <v>1.95</v>
-      </c>
-      <c r="R100">
-        <v>1.75</v>
-      </c>
-      <c r="S100">
-        <v>3</v>
-      </c>
-      <c r="T100">
-        <v>1.825</v>
-      </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
         <v>-1</v>
       </c>
       <c r="W100">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z100">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9151,7 +9151,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6873036</v>
+        <v>6873040</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J101">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="K101">
+        <v>3.4</v>
+      </c>
+      <c r="L101">
+        <v>2.4</v>
+      </c>
+      <c r="M101">
+        <v>1.95</v>
+      </c>
+      <c r="N101">
         <v>3.6</v>
       </c>
-      <c r="L101">
-        <v>5</v>
-      </c>
-      <c r="M101">
-        <v>1.7</v>
-      </c>
-      <c r="N101">
-        <v>3.5</v>
-      </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q101">
+        <v>1.95</v>
+      </c>
+      <c r="R101">
+        <v>1.75</v>
+      </c>
+      <c r="S101">
+        <v>3</v>
+      </c>
+      <c r="T101">
+        <v>1.825</v>
+      </c>
+      <c r="U101">
         <v>1.975</v>
       </c>
-      <c r="R101">
-        <v>1.825</v>
-      </c>
-      <c r="S101">
-        <v>2.5</v>
-      </c>
-      <c r="T101">
-        <v>1.7</v>
-      </c>
-      <c r="U101">
-        <v>2.1</v>
-      </c>
       <c r="V101">
         <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9237,7 +9237,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6873035</v>
+        <v>6873036</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9246,76 +9246,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J102">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="K102">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>1.7</v>
+      </c>
+      <c r="N102">
         <v>3.5</v>
       </c>
-      <c r="M102">
-        <v>2.625</v>
-      </c>
-      <c r="N102">
-        <v>3.1</v>
-      </c>
       <c r="O102">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V102">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9323,7 +9323,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6873037</v>
+        <v>6873035</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9332,76 +9332,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J103">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K103">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
+        <v>2.625</v>
+      </c>
+      <c r="N103">
         <v>3.1</v>
       </c>
-      <c r="M103">
-        <v>2.1</v>
-      </c>
-      <c r="N103">
-        <v>3.3</v>
-      </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="P103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9409,7 +9409,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6873041</v>
+        <v>6873037</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9418,76 +9418,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J104">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="K104">
         <v>3.4</v>
       </c>
       <c r="L104">
+        <v>3.1</v>
+      </c>
+      <c r="M104">
+        <v>2.1</v>
+      </c>
+      <c r="N104">
+        <v>3.3</v>
+      </c>
+      <c r="O104">
+        <v>3.2</v>
+      </c>
+      <c r="P104">
+        <v>-0.25</v>
+      </c>
+      <c r="Q104">
+        <v>1.825</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>2.75</v>
+      </c>
+      <c r="T104">
+        <v>1.9</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
+        <v>-1</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
         <v>2.2</v>
       </c>
-      <c r="M104">
-        <v>3</v>
-      </c>
-      <c r="N104">
-        <v>3.4</v>
-      </c>
-      <c r="O104">
-        <v>2.15</v>
-      </c>
-      <c r="P104">
-        <v>0.25</v>
-      </c>
-      <c r="Q104">
-        <v>1.875</v>
-      </c>
-      <c r="R104">
-        <v>1.925</v>
-      </c>
-      <c r="S104">
-        <v>2.5</v>
-      </c>
-      <c r="T104">
-        <v>1.875</v>
-      </c>
-      <c r="U104">
-        <v>1.925</v>
-      </c>
-      <c r="V104">
-        <v>2</v>
-      </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
       <c r="Y104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9495,7 +9495,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6873039</v>
+        <v>6873216</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9504,76 +9504,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K105">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L105">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
         <v>3.3</v>
       </c>
       <c r="O105">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
         <v>-1</v>
       </c>
       <c r="W105">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9581,7 +9581,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6873217</v>
+        <v>6873041</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9590,19 +9590,19 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
         <v>0</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
       <c r="I106" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>2.9</v>
@@ -9614,52 +9614,52 @@
         <v>2.2</v>
       </c>
       <c r="M106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O106">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P106">
         <v>0.25</v>
       </c>
       <c r="Q106">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9667,7 +9667,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6873216</v>
+        <v>6873217</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9676,56 +9676,56 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <v>1</v>
-      </c>
-      <c r="H107">
-        <v>2</v>
       </c>
       <c r="I107" t="s">
         <v>55</v>
       </c>
       <c r="J107">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="K107">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="M107">
+        <v>3.25</v>
+      </c>
+      <c r="N107">
+        <v>3.6</v>
+      </c>
+      <c r="O107">
+        <v>2.05</v>
+      </c>
+      <c r="P107">
+        <v>0.25</v>
+      </c>
+      <c r="Q107">
+        <v>2</v>
+      </c>
+      <c r="R107">
         <v>1.8</v>
       </c>
-      <c r="N107">
-        <v>3.3</v>
-      </c>
-      <c r="O107">
-        <v>4.2</v>
-      </c>
-      <c r="P107">
-        <v>-0.5</v>
-      </c>
-      <c r="Q107">
+      <c r="S107">
+        <v>3.25</v>
+      </c>
+      <c r="T107">
         <v>1.85</v>
       </c>
-      <c r="R107">
+      <c r="U107">
         <v>1.95</v>
       </c>
-      <c r="S107">
-        <v>2.75</v>
-      </c>
-      <c r="T107">
-        <v>1.875</v>
-      </c>
-      <c r="U107">
-        <v>1.925</v>
-      </c>
       <c r="V107">
         <v>-1</v>
       </c>
@@ -9733,19 +9733,19 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>1.05</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.95</v>
-      </c>
-      <c r="AA107">
-        <v>0.4375</v>
-      </c>
-      <c r="AB107">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9925,7 +9925,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6873219</v>
+        <v>6873047</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -9934,76 +9934,76 @@
         <v>45188.65625</v>
       </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J110">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K110">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L110">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q110">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T110">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
         <v>-1</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X110">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -10097,7 +10097,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6873047</v>
+        <v>6873219</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10106,76 +10106,76 @@
         <v>45188.65625</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J112">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K112">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M112">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="N112">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="P112">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10269,7 +10269,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6873046</v>
+        <v>6873045</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10278,10 +10278,10 @@
         <v>45188.65625</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10293,43 +10293,43 @@
         <v>53</v>
       </c>
       <c r="J114">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="K114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L114">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M114">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N114">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q114">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="R114">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T114">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10338,16 +10338,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10355,7 +10355,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6873042</v>
+        <v>6873046</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10364,58 +10364,58 @@
         <v>45188.65625</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>53</v>
       </c>
       <c r="J115">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L115">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="N115">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O115">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q115">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10424,16 +10424,16 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10441,7 +10441,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6873043</v>
+        <v>6873042</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10450,40 +10450,40 @@
         <v>45188.65625</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J116">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="K116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L116">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M116">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="N116">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="P116">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q116">
         <v>1.85</v>
@@ -10501,19 +10501,19 @@
         <v>1.9</v>
       </c>
       <c r="V116">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W116">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z116">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA116">
         <v>0.8999999999999999</v>
@@ -10527,7 +10527,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6873044</v>
+        <v>6873043</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10536,73 +10536,73 @@
         <v>45188.65625</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J117">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="K117">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M117">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="N117">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10613,7 +10613,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6873045</v>
+        <v>6873044</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10622,13 +10622,13 @@
         <v>45188.65625</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10637,43 +10637,43 @@
         <v>53</v>
       </c>
       <c r="J118">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="N118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q118">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -10682,16 +10682,16 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10699,7 +10699,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6873220</v>
+        <v>6873221</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -10708,13 +10708,13 @@
         <v>45188.65625</v>
       </c>
       <c r="E119" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -10723,25 +10723,25 @@
         <v>53</v>
       </c>
       <c r="J119">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K119">
+        <v>3.6</v>
+      </c>
+      <c r="L119">
         <v>3.25</v>
       </c>
-      <c r="L119">
-        <v>3</v>
-      </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N119">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O119">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
         <v>1.875</v>
@@ -10750,16 +10750,16 @@
         <v>1.925</v>
       </c>
       <c r="S119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T119">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -10774,10 +10774,10 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10785,7 +10785,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6873221</v>
+        <v>6873220</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -10794,13 +10794,13 @@
         <v>45188.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -10809,25 +10809,25 @@
         <v>53</v>
       </c>
       <c r="J120">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="K120">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N120">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="P120">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q120">
         <v>1.875</v>
@@ -10836,16 +10836,16 @@
         <v>1.925</v>
       </c>
       <c r="S120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T120">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -10860,10 +10860,10 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -11731,7 +11731,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6871026</v>
+        <v>6873049</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -11740,76 +11740,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131">
         <v>1</v>
       </c>
-      <c r="H131">
-        <v>2</v>
-      </c>
       <c r="I131" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J131">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K131">
         <v>3.4</v>
       </c>
       <c r="L131">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="M131">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N131">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11903,7 +11903,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6873049</v>
+        <v>6871026</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -11912,76 +11912,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J133">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K133">
         <v>3.4</v>
       </c>
       <c r="L133">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="M133">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="P133">
+        <v>0.5</v>
+      </c>
+      <c r="Q133">
+        <v>1.925</v>
+      </c>
+      <c r="R133">
+        <v>1.875</v>
+      </c>
+      <c r="S133">
+        <v>2.75</v>
+      </c>
+      <c r="T133">
+        <v>1.825</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
+        <v>-1</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>0.909</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0.875</v>
+      </c>
+      <c r="AA133">
+        <v>0.4125</v>
+      </c>
+      <c r="AB133">
         <v>-0.5</v>
-      </c>
-      <c r="Q133">
-        <v>1.825</v>
-      </c>
-      <c r="R133">
-        <v>1.975</v>
-      </c>
-      <c r="S133">
-        <v>3</v>
-      </c>
-      <c r="T133">
-        <v>1.9</v>
-      </c>
-      <c r="U133">
-        <v>1.9</v>
-      </c>
-      <c r="V133">
-        <v>0.8</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>0.825</v>
-      </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
-      <c r="AA133">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -13365,7 +13365,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6873065</v>
+        <v>6873073</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13374,76 +13374,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J150">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="K150">
         <v>3.5</v>
       </c>
       <c r="L150">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="M150">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N150">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O150">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="P150">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q150">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T150">
+        <v>1.75</v>
+      </c>
+      <c r="U150">
         <v>1.95</v>
       </c>
-      <c r="U150">
-        <v>1.85</v>
-      </c>
       <c r="V150">
         <v>-1</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X150">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z150">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13451,7 +13451,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6873066</v>
+        <v>6873065</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13460,76 +13460,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J151">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="K151">
+        <v>3.5</v>
+      </c>
+      <c r="L151">
+        <v>2.35</v>
+      </c>
+      <c r="M151">
+        <v>3.5</v>
+      </c>
+      <c r="N151">
         <v>3.6</v>
       </c>
-      <c r="L151">
-        <v>2.05</v>
-      </c>
-      <c r="M151">
-        <v>3.75</v>
-      </c>
-      <c r="N151">
-        <v>4</v>
-      </c>
       <c r="O151">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="P151">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
         <v>2.75</v>
       </c>
       <c r="T151">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V151">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13537,7 +13537,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6873067</v>
+        <v>6873066</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13546,73 +13546,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>53</v>
+      </c>
+      <c r="J152">
         <v>3</v>
       </c>
-      <c r="I152" t="s">
-        <v>55</v>
-      </c>
-      <c r="J152">
-        <v>2.25</v>
-      </c>
       <c r="K152">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L152">
+        <v>2.05</v>
+      </c>
+      <c r="M152">
+        <v>3.75</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152">
+        <v>1.727</v>
+      </c>
+      <c r="P152">
+        <v>0.75</v>
+      </c>
+      <c r="Q152">
+        <v>1.825</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
         <v>2.75</v>
       </c>
-      <c r="M152">
-        <v>2.25</v>
-      </c>
-      <c r="N152">
-        <v>3.5</v>
-      </c>
-      <c r="O152">
-        <v>2.7</v>
-      </c>
-      <c r="P152">
-        <v>-0.25</v>
-      </c>
-      <c r="Q152">
-        <v>2.025</v>
-      </c>
-      <c r="R152">
-        <v>1.775</v>
-      </c>
-      <c r="S152">
-        <v>2.5</v>
-      </c>
       <c r="T152">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z152">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -13623,7 +13623,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6873073</v>
+        <v>6873067</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -13632,73 +13632,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J153">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K153">
         <v>3.5</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N153">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O153">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P153">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
         <v>2.5</v>
       </c>
       <c r="T153">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
         <v>-1</v>
       </c>
       <c r="W153">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -17149,7 +17149,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6873099</v>
+        <v>6871020</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17158,73 +17158,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E194" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J194">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="K194">
         <v>3.4</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M194">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="N194">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P194">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q194">
+        <v>1.8</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>3</v>
+      </c>
+      <c r="T194">
         <v>1.9</v>
       </c>
-      <c r="R194">
+      <c r="U194">
         <v>1.9</v>
       </c>
-      <c r="S194">
+      <c r="V194">
+        <v>-1</v>
+      </c>
+      <c r="W194">
         <v>2.75</v>
       </c>
-      <c r="T194">
-        <v>2</v>
-      </c>
-      <c r="U194">
-        <v>1.8</v>
-      </c>
-      <c r="V194">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W194">
-        <v>-1</v>
-      </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
+        <v>0.8</v>
+      </c>
+      <c r="Z194">
+        <v>-1</v>
+      </c>
+      <c r="AA194">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z194">
-        <v>-1</v>
-      </c>
-      <c r="AA194">
-        <v>1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17235,7 +17235,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6873105</v>
+        <v>6873099</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17244,58 +17244,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="s">
         <v>53</v>
       </c>
       <c r="J195">
-        <v>1.952</v>
+        <v>2.05</v>
       </c>
       <c r="K195">
+        <v>3.4</v>
+      </c>
+      <c r="L195">
         <v>3.5</v>
       </c>
-      <c r="L195">
-        <v>3.75</v>
-      </c>
       <c r="M195">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="N195">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R195">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>0.6659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17304,13 +17304,13 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
@@ -17321,7 +17321,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6871020</v>
+        <v>6873105</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17330,73 +17330,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J196">
-        <v>2.6</v>
+        <v>1.952</v>
       </c>
       <c r="K196">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L196">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="N196">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P196">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q196">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S196">
         <v>3</v>
       </c>
       <c r="T196">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W196">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
         <v>-1</v>
@@ -17751,7 +17751,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6873103</v>
+        <v>6873102</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -17760,76 +17760,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J201">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="K201">
         <v>3.25</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="M201">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N201">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O201">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q201">
+        <v>1.8</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>2.75</v>
+      </c>
+      <c r="T201">
         <v>1.875</v>
       </c>
-      <c r="R201">
+      <c r="U201">
         <v>1.925</v>
       </c>
-      <c r="S201">
-        <v>2.5</v>
-      </c>
-      <c r="T201">
-        <v>1.925</v>
-      </c>
-      <c r="U201">
-        <v>1.875</v>
-      </c>
       <c r="V201">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
         <v>0.925</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17837,7 +17837,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6873102</v>
+        <v>6873103</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -17846,76 +17846,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J202">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="K202">
         <v>3.25</v>
       </c>
       <c r="L202">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M202">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N202">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O202">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="P202">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q202">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T202">
+        <v>1.925</v>
+      </c>
+      <c r="U202">
         <v>1.875</v>
       </c>
-      <c r="U202">
-        <v>1.925</v>
-      </c>
       <c r="V202">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -28157,7 +28157,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7595930</v>
+        <v>7595706</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -28166,10 +28166,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E322" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F322" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G322">
         <v>2</v>
@@ -28181,43 +28181,43 @@
         <v>53</v>
       </c>
       <c r="J322">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K322">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L322">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M322">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="N322">
         <v>3.5</v>
       </c>
       <c r="O322">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P322">
         <v>-0.5</v>
       </c>
       <c r="Q322">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R322">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S322">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T322">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U322">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -28226,16 +28226,16 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z322">
         <v>-1</v>
       </c>
       <c r="AA322">
+        <v>0.4</v>
+      </c>
+      <c r="AB322">
         <v>-0.5</v>
-      </c>
-      <c r="AB322">
-        <v>0.425</v>
       </c>
     </row>
     <row r="323" spans="1:28">
@@ -28243,7 +28243,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7595706</v>
+        <v>7595930</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -28252,10 +28252,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E323" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F323" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G323">
         <v>2</v>
@@ -28267,43 +28267,43 @@
         <v>53</v>
       </c>
       <c r="J323">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K323">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L323">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M323">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="N323">
         <v>3.5</v>
       </c>
       <c r="O323">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P323">
         <v>-0.5</v>
       </c>
       <c r="Q323">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R323">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S323">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T323">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U323">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V323">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -28312,16 +28312,16 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z323">
         <v>-1</v>
       </c>
       <c r="AA323">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AB323">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -28931,7 +28931,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6993429</v>
+        <v>6994893</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -28940,76 +28940,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E331" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F331" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J331">
-        <v>1.285</v>
+        <v>2.75</v>
       </c>
       <c r="K331">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="L331">
-        <v>9.5</v>
+        <v>2.75</v>
       </c>
       <c r="M331">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="N331">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O331">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P331">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q331">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R331">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S331">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T331">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U331">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V331">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z331">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB331">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29017,7 +29017,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6994893</v>
+        <v>6994894</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29026,76 +29026,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E332" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F332" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G332">
         <v>2</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J332">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="K332">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L332">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M332">
         <v>2.5</v>
       </c>
       <c r="N332">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O332">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P332">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q332">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R332">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S332">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T332">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U332">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V332">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W332">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z332">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29103,7 +29103,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6994894</v>
+        <v>6990883</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -29112,58 +29112,58 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E333" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G333">
         <v>2</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" t="s">
         <v>53</v>
       </c>
       <c r="J333">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="K333">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L333">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M333">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N333">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O333">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="P333">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q333">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S333">
         <v>2.75</v>
       </c>
       <c r="T333">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U333">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V333">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -29172,16 +29172,16 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB333">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29189,7 +29189,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6990883</v>
+        <v>6993429</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -29198,58 +29198,58 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E334" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F334" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="s">
         <v>53</v>
       </c>
       <c r="J334">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="K334">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L334">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="M334">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="N334">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O334">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="P334">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q334">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R334">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S334">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T334">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U334">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="W334">
         <v>-1</v>
@@ -29258,16 +29258,16 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA334">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29705,7 +29705,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7023972</v>
+        <v>7023971</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -29714,58 +29714,58 @@
         <v>45318.5</v>
       </c>
       <c r="E340" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F340" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G340">
+        <v>2</v>
+      </c>
+      <c r="H340">
         <v>1</v>
-      </c>
-      <c r="H340">
-        <v>0</v>
       </c>
       <c r="I340" t="s">
         <v>53</v>
       </c>
       <c r="J340">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="K340">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L340">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="M340">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N340">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O340">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="P340">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q340">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R340">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S340">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T340">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U340">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V340">
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="W340">
         <v>-1</v>
@@ -29774,16 +29774,16 @@
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB340">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="341" spans="1:28">
@@ -29791,7 +29791,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7023973</v>
+        <v>7023972</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -29800,13 +29800,13 @@
         <v>45318.5</v>
       </c>
       <c r="E341" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F341" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G341">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -29815,43 +29815,43 @@
         <v>53</v>
       </c>
       <c r="J341">
+        <v>2.8</v>
+      </c>
+      <c r="K341">
+        <v>3.5</v>
+      </c>
+      <c r="L341">
+        <v>2.25</v>
+      </c>
+      <c r="M341">
+        <v>2.375</v>
+      </c>
+      <c r="N341">
+        <v>3.5</v>
+      </c>
+      <c r="O341">
+        <v>2.625</v>
+      </c>
+      <c r="P341">
+        <v>0</v>
+      </c>
+      <c r="Q341">
         <v>1.8</v>
       </c>
-      <c r="K341">
-        <v>3.75</v>
-      </c>
-      <c r="L341">
-        <v>4</v>
-      </c>
-      <c r="M341">
-        <v>1.363</v>
-      </c>
-      <c r="N341">
-        <v>4.75</v>
-      </c>
-      <c r="O341">
-        <v>7</v>
-      </c>
-      <c r="P341">
-        <v>-1.5</v>
-      </c>
-      <c r="Q341">
-        <v>1.975</v>
-      </c>
       <c r="R341">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S341">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T341">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U341">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V341">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="W341">
         <v>-1</v>
@@ -29860,16 +29860,16 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:28">
@@ -29877,7 +29877,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7023976</v>
+        <v>7023973</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -29886,76 +29886,76 @@
         <v>45318.5</v>
       </c>
       <c r="E342" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F342" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G342">
+        <v>4</v>
+      </c>
+      <c r="H342">
         <v>0</v>
       </c>
-      <c r="H342">
-        <v>1</v>
-      </c>
       <c r="I342" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J342">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="K342">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L342">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M342">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="N342">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O342">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P342">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q342">
+        <v>1.975</v>
+      </c>
+      <c r="R342">
+        <v>1.825</v>
+      </c>
+      <c r="S342">
+        <v>3.25</v>
+      </c>
+      <c r="T342">
         <v>1.95</v>
       </c>
-      <c r="R342">
+      <c r="U342">
         <v>1.85</v>
       </c>
-      <c r="S342">
-        <v>2</v>
-      </c>
-      <c r="T342">
-        <v>1.775</v>
-      </c>
-      <c r="U342">
-        <v>2.025</v>
-      </c>
       <c r="V342">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W342">
         <v>-1</v>
       </c>
       <c r="X342">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z342">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB342">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -29963,7 +29963,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7023979</v>
+        <v>7023977</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -29972,76 +29972,76 @@
         <v>45318.5</v>
       </c>
       <c r="E343" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F343" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="I343" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J343">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K343">
         <v>3.5</v>
       </c>
       <c r="L343">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M343">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="N343">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O343">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P343">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q343">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R343">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S343">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T343">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U343">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V343">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W343">
         <v>-1</v>
       </c>
       <c r="X343">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z343">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB343">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="344" spans="1:28">
@@ -30135,7 +30135,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7023971</v>
+        <v>7023979</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -30144,76 +30144,76 @@
         <v>45318.5</v>
       </c>
       <c r="E345" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F345" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G345">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J345">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="K345">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L345">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="M345">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="N345">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O345">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="P345">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q345">
+        <v>1.875</v>
+      </c>
+      <c r="R345">
         <v>1.925</v>
       </c>
-      <c r="R345">
-        <v>1.875</v>
-      </c>
       <c r="S345">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T345">
+        <v>1.75</v>
+      </c>
+      <c r="U345">
         <v>1.95</v>
       </c>
-      <c r="U345">
-        <v>1.75</v>
-      </c>
       <c r="V345">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W345">
         <v>-1</v>
       </c>
       <c r="X345">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y345">
+        <v>-1</v>
+      </c>
+      <c r="Z345">
         <v>0.925</v>
       </c>
-      <c r="Z345">
-        <v>-1</v>
-      </c>
       <c r="AA345">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="346" spans="1:28">
@@ -30221,7 +30221,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7023980</v>
+        <v>7023976</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -30230,76 +30230,76 @@
         <v>45318.5</v>
       </c>
       <c r="E346" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F346" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
         <v>1</v>
       </c>
-      <c r="H346">
-        <v>0</v>
-      </c>
       <c r="I346" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J346">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="K346">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L346">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M346">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N346">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O346">
+        <v>3</v>
+      </c>
+      <c r="P346">
+        <v>-0.25</v>
+      </c>
+      <c r="Q346">
+        <v>1.95</v>
+      </c>
+      <c r="R346">
         <v>1.85</v>
       </c>
-      <c r="P346">
-        <v>0.5</v>
-      </c>
-      <c r="Q346">
-        <v>1.925</v>
-      </c>
-      <c r="R346">
-        <v>1.875</v>
-      </c>
       <c r="S346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T346">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U346">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V346">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W346">
         <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y346">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="347" spans="1:28">
@@ -30307,7 +30307,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7023981</v>
+        <v>7023980</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -30316,13 +30316,13 @@
         <v>45318.5</v>
       </c>
       <c r="E347" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F347" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -30331,43 +30331,43 @@
         <v>53</v>
       </c>
       <c r="J347">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="K347">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L347">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="M347">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N347">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O347">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="P347">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q347">
+        <v>1.925</v>
+      </c>
+      <c r="R347">
+        <v>1.875</v>
+      </c>
+      <c r="S347">
+        <v>3</v>
+      </c>
+      <c r="T347">
         <v>1.9</v>
       </c>
-      <c r="R347">
+      <c r="U347">
         <v>1.9</v>
       </c>
-      <c r="S347">
-        <v>2.5</v>
-      </c>
-      <c r="T347">
-        <v>2</v>
-      </c>
-      <c r="U347">
-        <v>1.8</v>
-      </c>
       <c r="V347">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="W347">
         <v>-1</v>
@@ -30376,16 +30376,16 @@
         <v>-1</v>
       </c>
       <c r="Y347">
+        <v>0.925</v>
+      </c>
+      <c r="Z347">
+        <v>-1</v>
+      </c>
+      <c r="AA347">
+        <v>-1</v>
+      </c>
+      <c r="AB347">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z347">
-        <v>-1</v>
-      </c>
-      <c r="AA347">
-        <v>-1</v>
-      </c>
-      <c r="AB347">
-        <v>0.8</v>
       </c>
     </row>
     <row r="348" spans="1:28">
@@ -30393,7 +30393,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7023977</v>
+        <v>7023981</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -30402,58 +30402,58 @@
         <v>45318.5</v>
       </c>
       <c r="E348" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F348" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G348">
         <v>2</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="s">
         <v>53</v>
       </c>
       <c r="J348">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="K348">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L348">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M348">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N348">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O348">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P348">
         <v>-0.25</v>
       </c>
       <c r="Q348">
+        <v>1.9</v>
+      </c>
+      <c r="R348">
+        <v>1.9</v>
+      </c>
+      <c r="S348">
+        <v>2.5</v>
+      </c>
+      <c r="T348">
+        <v>2</v>
+      </c>
+      <c r="U348">
         <v>1.8</v>
       </c>
-      <c r="R348">
-        <v>2</v>
-      </c>
-      <c r="S348">
-        <v>2.75</v>
-      </c>
-      <c r="T348">
-        <v>1.975</v>
-      </c>
-      <c r="U348">
-        <v>1.825</v>
-      </c>
       <c r="V348">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W348">
         <v>-1</v>
@@ -30462,16 +30462,16 @@
         <v>-1</v>
       </c>
       <c r="Y348">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z348">
+        <v>-1</v>
+      </c>
+      <c r="AA348">
+        <v>-1</v>
+      </c>
+      <c r="AB348">
         <v>0.8</v>
-      </c>
-      <c r="Z348">
-        <v>-1</v>
-      </c>
-      <c r="AA348">
-        <v>0.4875</v>
-      </c>
-      <c r="AB348">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="349" spans="1:28">
@@ -30737,7 +30737,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7658751</v>
+        <v>7754359</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -30746,76 +30746,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E352" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F352" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I352" t="s">
         <v>54</v>
       </c>
       <c r="J352">
+        <v>2.1</v>
+      </c>
+      <c r="K352">
+        <v>3.5</v>
+      </c>
+      <c r="L352">
+        <v>3</v>
+      </c>
+      <c r="M352">
+        <v>2.45</v>
+      </c>
+      <c r="N352">
+        <v>3.4</v>
+      </c>
+      <c r="O352">
+        <v>2.45</v>
+      </c>
+      <c r="P352">
+        <v>0</v>
+      </c>
+      <c r="Q352">
+        <v>1.9</v>
+      </c>
+      <c r="R352">
+        <v>1.9</v>
+      </c>
+      <c r="S352">
+        <v>2.5</v>
+      </c>
+      <c r="T352">
+        <v>1.85</v>
+      </c>
+      <c r="U352">
+        <v>1.95</v>
+      </c>
+      <c r="V352">
+        <v>-1</v>
+      </c>
+      <c r="W352">
         <v>2.4</v>
       </c>
-      <c r="K352">
-        <v>3.4</v>
-      </c>
-      <c r="L352">
-        <v>2.6</v>
-      </c>
-      <c r="M352">
-        <v>2.05</v>
-      </c>
-      <c r="N352">
-        <v>3.6</v>
-      </c>
-      <c r="O352">
-        <v>3.1</v>
-      </c>
-      <c r="P352">
-        <v>-0.25</v>
-      </c>
-      <c r="Q352">
-        <v>1.85</v>
-      </c>
-      <c r="R352">
-        <v>1.95</v>
-      </c>
-      <c r="S352">
-        <v>3</v>
-      </c>
-      <c r="T352">
-        <v>1.975</v>
-      </c>
-      <c r="U352">
-        <v>1.825</v>
-      </c>
-      <c r="V352">
-        <v>-1</v>
-      </c>
-      <c r="W352">
-        <v>2.6</v>
-      </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z352">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA352">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="353" spans="1:28">
@@ -30823,7 +30823,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7754359</v>
+        <v>7658751</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -30832,76 +30832,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E353" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I353" t="s">
         <v>54</v>
       </c>
       <c r="J353">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K353">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L353">
+        <v>2.6</v>
+      </c>
+      <c r="M353">
+        <v>2.05</v>
+      </c>
+      <c r="N353">
+        <v>3.6</v>
+      </c>
+      <c r="O353">
+        <v>3.1</v>
+      </c>
+      <c r="P353">
+        <v>-0.25</v>
+      </c>
+      <c r="Q353">
+        <v>1.85</v>
+      </c>
+      <c r="R353">
+        <v>1.95</v>
+      </c>
+      <c r="S353">
         <v>3</v>
       </c>
-      <c r="M353">
-        <v>2.45</v>
-      </c>
-      <c r="N353">
-        <v>3.4</v>
-      </c>
-      <c r="O353">
-        <v>2.45</v>
-      </c>
-      <c r="P353">
-        <v>0</v>
-      </c>
-      <c r="Q353">
-        <v>1.9</v>
-      </c>
-      <c r="R353">
-        <v>1.9</v>
-      </c>
-      <c r="S353">
-        <v>2.5</v>
-      </c>
       <c r="T353">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U353">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V353">
         <v>-1</v>
       </c>
       <c r="W353">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z353">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB353">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -31425,7 +31425,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7060465</v>
+        <v>7060467</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -31434,55 +31434,55 @@
         <v>45325.5</v>
       </c>
       <c r="E360" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F360" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G360">
         <v>1</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="s">
         <v>55</v>
       </c>
       <c r="J360">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="K360">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L360">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="M360">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N360">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O360">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="P360">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q360">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R360">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S360">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T360">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U360">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V360">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="Y360">
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA360">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB360">
         <v>-1</v>
@@ -31769,7 +31769,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7060467</v>
+        <v>7060465</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -31778,55 +31778,55 @@
         <v>45325.5</v>
       </c>
       <c r="E364" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F364" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G364">
         <v>1</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I364" t="s">
         <v>55</v>
       </c>
       <c r="J364">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="K364">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L364">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="M364">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="N364">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O364">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="P364">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q364">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R364">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S364">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T364">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U364">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V364">
         <v>-1</v>
@@ -31835,16 +31835,16 @@
         <v>-1</v>
       </c>
       <c r="X364">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA364">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB364">
         <v>-1</v>
@@ -37703,7 +37703,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7791090</v>
+        <v>7840556</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -37712,76 +37712,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E433" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F433" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H433">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J433">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K433">
         <v>3.5</v>
       </c>
       <c r="L433">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M433">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="N433">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O433">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P433">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q433">
+        <v>2</v>
+      </c>
+      <c r="R433">
+        <v>1.8</v>
+      </c>
+      <c r="S433">
+        <v>2.25</v>
+      </c>
+      <c r="T433">
         <v>1.975</v>
       </c>
-      <c r="R433">
+      <c r="U433">
         <v>1.825</v>
       </c>
-      <c r="S433">
-        <v>3</v>
-      </c>
-      <c r="T433">
-        <v>1.875</v>
-      </c>
-      <c r="U433">
-        <v>1.925</v>
-      </c>
       <c r="V433">
         <v>-1</v>
       </c>
       <c r="W433">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X433">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y433">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z433">
+        <v>0.4</v>
+      </c>
+      <c r="AA433">
+        <v>-1</v>
+      </c>
+      <c r="AB433">
         <v>0.825</v>
-      </c>
-      <c r="AA433">
-        <v>0.875</v>
-      </c>
-      <c r="AB433">
-        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:28">
@@ -37789,7 +37789,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7840555</v>
+        <v>7157677</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -37798,10 +37798,10 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E434" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F434" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G434">
         <v>2</v>
@@ -37813,43 +37813,43 @@
         <v>53</v>
       </c>
       <c r="J434">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="K434">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L434">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M434">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="N434">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O434">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P434">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q434">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R434">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S434">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T434">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U434">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="V434">
-        <v>0.6659999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="W434">
         <v>-1</v>
@@ -37858,16 +37858,16 @@
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="Z434">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA434">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB434">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:28">
@@ -37961,7 +37961,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7840556</v>
+        <v>7840555</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -37970,76 +37970,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E436" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F436" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G436">
+        <v>2</v>
+      </c>
+      <c r="H436">
+        <v>1</v>
+      </c>
+      <c r="I436" t="s">
+        <v>53</v>
+      </c>
+      <c r="J436">
+        <v>1.5</v>
+      </c>
+      <c r="K436">
+        <v>3.8</v>
+      </c>
+      <c r="L436">
+        <v>6</v>
+      </c>
+      <c r="M436">
+        <v>1.666</v>
+      </c>
+      <c r="N436">
+        <v>3.5</v>
+      </c>
+      <c r="O436">
+        <v>4.75</v>
+      </c>
+      <c r="P436">
+        <v>-0.75</v>
+      </c>
+      <c r="Q436">
+        <v>1.85</v>
+      </c>
+      <c r="R436">
+        <v>1.95</v>
+      </c>
+      <c r="S436">
+        <v>3</v>
+      </c>
+      <c r="T436">
+        <v>1.825</v>
+      </c>
+      <c r="U436">
+        <v>1.975</v>
+      </c>
+      <c r="V436">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="W436">
+        <v>-1</v>
+      </c>
+      <c r="X436">
+        <v>-1</v>
+      </c>
+      <c r="Y436">
+        <v>0.425</v>
+      </c>
+      <c r="Z436">
+        <v>-0.5</v>
+      </c>
+      <c r="AA436">
         <v>0</v>
       </c>
-      <c r="H436">
+      <c r="AB436">
         <v>0</v>
-      </c>
-      <c r="I436" t="s">
-        <v>54</v>
-      </c>
-      <c r="J436">
-        <v>2.1</v>
-      </c>
-      <c r="K436">
-        <v>3.5</v>
-      </c>
-      <c r="L436">
-        <v>3</v>
-      </c>
-      <c r="M436">
-        <v>2.25</v>
-      </c>
-      <c r="N436">
-        <v>3.25</v>
-      </c>
-      <c r="O436">
-        <v>2.9</v>
-      </c>
-      <c r="P436">
-        <v>-0.25</v>
-      </c>
-      <c r="Q436">
-        <v>2</v>
-      </c>
-      <c r="R436">
-        <v>1.8</v>
-      </c>
-      <c r="S436">
-        <v>2.25</v>
-      </c>
-      <c r="T436">
-        <v>1.975</v>
-      </c>
-      <c r="U436">
-        <v>1.825</v>
-      </c>
-      <c r="V436">
-        <v>-1</v>
-      </c>
-      <c r="W436">
-        <v>2.25</v>
-      </c>
-      <c r="X436">
-        <v>-1</v>
-      </c>
-      <c r="Y436">
-        <v>-0.5</v>
-      </c>
-      <c r="Z436">
-        <v>0.4</v>
-      </c>
-      <c r="AA436">
-        <v>-1</v>
-      </c>
-      <c r="AB436">
-        <v>0.825</v>
       </c>
     </row>
     <row r="437" spans="1:28">
@@ -38047,7 +38047,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7157677</v>
+        <v>7791090</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -38056,73 +38056,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E437" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F437" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G437">
         <v>2</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I437" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J437">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="K437">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L437">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M437">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N437">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O437">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P437">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q437">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R437">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S437">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T437">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U437">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V437">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W437">
         <v>-1</v>
       </c>
       <c r="X437">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y437">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z437">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA437">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB437">
         <v>-1</v>
@@ -45099,7 +45099,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7841222</v>
+        <v>7820458</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -45108,76 +45108,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E519" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F519" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G519">
         <v>1</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I519" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J519">
-        <v>1.869</v>
+        <v>3.7</v>
       </c>
       <c r="K519">
         <v>3.6</v>
       </c>
       <c r="L519">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="M519">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N519">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O519">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="P519">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q519">
+        <v>1.825</v>
+      </c>
+      <c r="R519">
         <v>1.975</v>
-      </c>
-      <c r="R519">
-        <v>1.825</v>
       </c>
       <c r="S519">
         <v>2.75</v>
       </c>
       <c r="T519">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U519">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V519">
         <v>-1</v>
       </c>
       <c r="W519">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z519">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA519">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB519">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="520" spans="1:28">
@@ -45185,7 +45185,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>7820458</v>
+        <v>7841222</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -45194,76 +45194,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E520" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F520" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G520">
         <v>1</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J520">
-        <v>3.7</v>
+        <v>1.869</v>
       </c>
       <c r="K520">
         <v>3.6</v>
       </c>
       <c r="L520">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="M520">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N520">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O520">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="P520">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q520">
+        <v>1.975</v>
+      </c>
+      <c r="R520">
         <v>1.825</v>
-      </c>
-      <c r="R520">
-        <v>1.975</v>
       </c>
       <c r="S520">
         <v>2.75</v>
       </c>
       <c r="T520">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U520">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V520">
         <v>-1</v>
       </c>
       <c r="W520">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X520">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y520">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z520">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA520">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB520">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="521" spans="1:28">
@@ -47593,7 +47593,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>7386083</v>
+        <v>7375053</v>
       </c>
       <c r="C548" t="s">
         <v>28</v>
@@ -47602,49 +47602,49 @@
         <v>45402.34375</v>
       </c>
       <c r="E548" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F548" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G548">
         <v>3</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I548" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J548">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K548">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L548">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="M548">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="N548">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O548">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="P548">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q548">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R548">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S548">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T548">
         <v>1.9</v>
@@ -47653,19 +47653,19 @@
         <v>1.9</v>
       </c>
       <c r="V548">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W548">
         <v>-1</v>
       </c>
       <c r="X548">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y548">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z548">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA548">
         <v>0.8999999999999999</v>
@@ -47679,7 +47679,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>7375053</v>
+        <v>7386083</v>
       </c>
       <c r="C549" t="s">
         <v>28</v>
@@ -47688,49 +47688,49 @@
         <v>45402.34375</v>
       </c>
       <c r="E549" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F549" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G549">
         <v>3</v>
       </c>
       <c r="H549">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I549" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J549">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="K549">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L549">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="M549">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="N549">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O549">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="P549">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q549">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R549">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S549">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T549">
         <v>1.9</v>
@@ -47739,19 +47739,19 @@
         <v>1.9</v>
       </c>
       <c r="V549">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W549">
         <v>-1</v>
       </c>
       <c r="X549">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y549">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z549">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA549">
         <v>0.8999999999999999</v>
@@ -47937,7 +47937,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>7386086</v>
+        <v>7375056</v>
       </c>
       <c r="C552" t="s">
         <v>28</v>
@@ -47946,73 +47946,73 @@
         <v>45402.34375</v>
       </c>
       <c r="E552" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F552" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G552">
+        <v>0</v>
+      </c>
+      <c r="H552">
         <v>3</v>
       </c>
-      <c r="H552">
-        <v>0</v>
-      </c>
       <c r="I552" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J552">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="K552">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L552">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="M552">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="N552">
         <v>3.75</v>
       </c>
       <c r="O552">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="P552">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q552">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R552">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S552">
         <v>2.75</v>
       </c>
       <c r="T552">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U552">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V552">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W552">
         <v>-1</v>
       </c>
       <c r="X552">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y552">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z552">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA552">
-        <v>0.4875</v>
+        <v>0.45</v>
       </c>
       <c r="AB552">
         <v>-0.5</v>
@@ -48023,7 +48023,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>7375056</v>
+        <v>7386086</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -48032,73 +48032,73 @@
         <v>45402.34375</v>
       </c>
       <c r="E553" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F553" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G553">
+        <v>3</v>
+      </c>
+      <c r="H553">
         <v>0</v>
       </c>
-      <c r="H553">
-        <v>3</v>
-      </c>
       <c r="I553" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J553">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="K553">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L553">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="M553">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="N553">
         <v>3.75</v>
       </c>
       <c r="O553">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="P553">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q553">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R553">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S553">
         <v>2.75</v>
       </c>
       <c r="T553">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U553">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V553">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W553">
         <v>-1</v>
       </c>
       <c r="X553">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y553">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z553">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA553">
-        <v>0.45</v>
+        <v>0.4875</v>
       </c>
       <c r="AB553">
         <v>-0.5</v>
@@ -48403,19 +48403,19 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R557">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S557">
         <v>2.75</v>
       </c>
       <c r="T557">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U557">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V557">
         <v>0</v>

--- a/England National League/England National League.xlsx
+++ b/England National League/England National League.xlsx
@@ -6829,7 +6829,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6873211</v>
+        <v>6873023</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -6838,13 +6838,13 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -6853,43 +6853,43 @@
         <v>53</v>
       </c>
       <c r="J74">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L74">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q74">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T74">
+        <v>1.95</v>
+      </c>
+      <c r="U74">
         <v>1.85</v>
       </c>
-      <c r="U74">
-        <v>1.95</v>
-      </c>
       <c r="V74">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -6898,16 +6898,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6915,7 +6915,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6873212</v>
+        <v>6873211</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -6924,76 +6924,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J75">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="K75">
         <v>3.4</v>
       </c>
       <c r="L75">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M75">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O75">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P75">
         <v>0.25</v>
       </c>
       <c r="Q75">
+        <v>1.75</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>2.5</v>
+      </c>
+      <c r="T75">
         <v>1.85</v>
       </c>
-      <c r="R75">
+      <c r="U75">
         <v>1.95</v>
       </c>
-      <c r="S75">
-        <v>2.75</v>
-      </c>
-      <c r="T75">
-        <v>1.875</v>
-      </c>
-      <c r="U75">
-        <v>1.925</v>
-      </c>
       <c r="V75">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7001,7 +7001,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6873021</v>
+        <v>6873212</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7010,76 +7010,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J76">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="K76">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M76">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q76">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R76">
         <v>1.95</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
+        <v>1.875</v>
+      </c>
+      <c r="U76">
         <v>1.925</v>
       </c>
-      <c r="U76">
-        <v>1.875</v>
-      </c>
       <c r="V76">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
+        <v>-1</v>
+      </c>
+      <c r="AB76">
         <v>0.925</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7087,7 +7087,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6873210</v>
+        <v>6873021</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7096,73 +7096,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="K77">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L77">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O77">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
         <v>3</v>
       </c>
       <c r="T77">
+        <v>1.925</v>
+      </c>
+      <c r="U77">
         <v>1.875</v>
       </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7173,7 +7173,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6873023</v>
+        <v>6873210</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7182,64 +7182,64 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J78">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="K78">
         <v>3.6</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="M78">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="N78">
         <v>4</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="P78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q78">
+        <v>1.825</v>
+      </c>
+      <c r="R78">
+        <v>1.975</v>
+      </c>
+      <c r="S78">
+        <v>3</v>
+      </c>
+      <c r="T78">
+        <v>1.875</v>
+      </c>
+      <c r="U78">
         <v>1.925</v>
       </c>
-      <c r="R78">
-        <v>1.875</v>
-      </c>
-      <c r="S78">
-        <v>3.25</v>
-      </c>
-      <c r="T78">
-        <v>1.95</v>
-      </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
       <c r="V78">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -7248,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -9065,7 +9065,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6873039</v>
+        <v>6873040</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9074,10 +9074,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9089,61 +9089,61 @@
         <v>54</v>
       </c>
       <c r="J100">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K100">
         <v>3.4</v>
       </c>
       <c r="L100">
+        <v>2.4</v>
+      </c>
+      <c r="M100">
+        <v>1.95</v>
+      </c>
+      <c r="N100">
+        <v>3.6</v>
+      </c>
+      <c r="O100">
+        <v>3.25</v>
+      </c>
+      <c r="P100">
+        <v>-0.5</v>
+      </c>
+      <c r="Q100">
+        <v>1.95</v>
+      </c>
+      <c r="R100">
+        <v>1.75</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
+        <v>1.825</v>
+      </c>
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
+        <v>-1</v>
+      </c>
+      <c r="W100">
         <v>2.6</v>
       </c>
-      <c r="M100">
-        <v>2.45</v>
-      </c>
-      <c r="N100">
-        <v>3.3</v>
-      </c>
-      <c r="O100">
-        <v>2.625</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>1.8</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>2.5</v>
-      </c>
-      <c r="T100">
-        <v>1.95</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>-1</v>
-      </c>
-      <c r="W100">
-        <v>2.3</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9151,7 +9151,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6873040</v>
+        <v>6873036</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J101">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q101">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T101">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V101">
         <v>-1</v>
       </c>
       <c r="W101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9237,7 +9237,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6873036</v>
+        <v>6873035</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9246,76 +9246,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F102" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
         <v>0</v>
       </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J102">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="P102">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="U102">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9323,7 +9323,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6873035</v>
+        <v>6873037</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9332,76 +9332,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J103">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K103">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O103">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9409,7 +9409,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6873037</v>
+        <v>6873041</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9418,76 +9418,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
-      <c r="H104">
-        <v>2</v>
-      </c>
       <c r="I104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J104">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="K104">
         <v>3.4</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M104">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q104">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9495,7 +9495,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6873216</v>
+        <v>6873039</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9504,76 +9504,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K105">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N105">
         <v>3.3</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P105">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q105">
+        <v>1.8</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>2.5</v>
+      </c>
+      <c r="T105">
+        <v>1.95</v>
+      </c>
+      <c r="U105">
         <v>1.85</v>
       </c>
-      <c r="R105">
-        <v>1.95</v>
-      </c>
-      <c r="S105">
-        <v>2.75</v>
-      </c>
-      <c r="T105">
-        <v>1.875</v>
-      </c>
-      <c r="U105">
-        <v>1.925</v>
-      </c>
       <c r="V105">
         <v>-1</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X105">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9581,7 +9581,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6873041</v>
+        <v>6873217</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9590,19 +9590,19 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J106">
         <v>2.9</v>
@@ -9614,52 +9614,52 @@
         <v>2.2</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N106">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O106">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P106">
         <v>0.25</v>
       </c>
       <c r="Q106">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9667,7 +9667,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6873217</v>
+        <v>6873216</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9676,55 +9676,55 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="s">
         <v>55</v>
       </c>
       <c r="J107">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L107">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="N107">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O107">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
         <v>-1</v>
@@ -9733,19 +9733,19 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9925,7 +9925,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6873047</v>
+        <v>6873219</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -9934,76 +9934,76 @@
         <v>45188.65625</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K110">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M110">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="N110">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="P110">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
         <v>-1</v>
       </c>
       <c r="W110">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -10097,7 +10097,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6873219</v>
+        <v>6873047</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10106,76 +10106,76 @@
         <v>45188.65625</v>
       </c>
       <c r="E112" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J112">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K112">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="N112">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O112">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X112">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10269,7 +10269,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6873045</v>
+        <v>6873046</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10278,10 +10278,10 @@
         <v>45188.65625</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10293,43 +10293,43 @@
         <v>53</v>
       </c>
       <c r="J114">
+        <v>1.666</v>
+      </c>
+      <c r="K114">
+        <v>3.6</v>
+      </c>
+      <c r="L114">
+        <v>5.5</v>
+      </c>
+      <c r="M114">
+        <v>2.15</v>
+      </c>
+      <c r="N114">
+        <v>3.4</v>
+      </c>
+      <c r="O114">
+        <v>3.3</v>
+      </c>
+      <c r="P114">
+        <v>-0.5</v>
+      </c>
+      <c r="Q114">
         <v>2.1</v>
       </c>
-      <c r="K114">
-        <v>3.5</v>
-      </c>
-      <c r="L114">
-        <v>3.25</v>
-      </c>
-      <c r="M114">
-        <v>1.95</v>
-      </c>
-      <c r="N114">
-        <v>3.5</v>
-      </c>
-      <c r="O114">
-        <v>3.5</v>
-      </c>
-      <c r="P114">
-        <v>-0.25</v>
-      </c>
-      <c r="Q114">
-        <v>1.75</v>
-      </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S114">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T114">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10338,16 +10338,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10355,7 +10355,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6873046</v>
+        <v>6873042</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10364,58 +10364,58 @@
         <v>45188.65625</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="s">
         <v>53</v>
       </c>
       <c r="J115">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="K115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M115">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="N115">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="P115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q115">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R115">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10424,16 +10424,16 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10441,7 +10441,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6873042</v>
+        <v>6873043</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10450,40 +10450,40 @@
         <v>45188.65625</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J116">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L116">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M116">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O116">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="P116">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q116">
         <v>1.85</v>
@@ -10501,19 +10501,19 @@
         <v>1.9</v>
       </c>
       <c r="V116">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA116">
         <v>0.8999999999999999</v>
@@ -10527,7 +10527,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6873043</v>
+        <v>6873044</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10536,73 +10536,73 @@
         <v>45188.65625</v>
       </c>
       <c r="E117" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J117">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L117">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="N117">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W117">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z117">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10613,7 +10613,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6873044</v>
+        <v>6873045</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10622,13 +10622,13 @@
         <v>45188.65625</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10637,61 +10637,61 @@
         <v>53</v>
       </c>
       <c r="J118">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K118">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M118">
+        <v>1.95</v>
+      </c>
+      <c r="N118">
+        <v>3.5</v>
+      </c>
+      <c r="O118">
+        <v>3.5</v>
+      </c>
+      <c r="P118">
+        <v>-0.25</v>
+      </c>
+      <c r="Q118">
         <v>1.75</v>
       </c>
-      <c r="N118">
-        <v>3.75</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
-      <c r="P118">
-        <v>-0.75</v>
-      </c>
-      <c r="Q118">
-        <v>1.975</v>
-      </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
+        <v>0.95</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
         <v>0.75</v>
       </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10699,7 +10699,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6873221</v>
+        <v>6873220</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -10708,13 +10708,13 @@
         <v>45188.65625</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -10723,25 +10723,25 @@
         <v>53</v>
       </c>
       <c r="J119">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L119">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N119">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O119">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="P119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q119">
         <v>1.875</v>
@@ -10750,16 +10750,16 @@
         <v>1.925</v>
       </c>
       <c r="S119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T119">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -10774,10 +10774,10 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10785,7 +10785,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6873220</v>
+        <v>6873221</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -10794,13 +10794,13 @@
         <v>45188.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -10809,25 +10809,25 @@
         <v>53</v>
       </c>
       <c r="J120">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K120">
+        <v>3.6</v>
+      </c>
+      <c r="L120">
         <v>3.25</v>
       </c>
-      <c r="L120">
-        <v>3</v>
-      </c>
       <c r="M120">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O120">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
         <v>1.875</v>
@@ -10836,16 +10836,16 @@
         <v>1.925</v>
       </c>
       <c r="S120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T120">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -10860,10 +10860,10 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -11731,7 +11731,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6873049</v>
+        <v>6871026</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -11740,76 +11740,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G131">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J131">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K131">
         <v>3.4</v>
       </c>
       <c r="L131">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="M131">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="P131">
+        <v>0.5</v>
+      </c>
+      <c r="Q131">
+        <v>1.925</v>
+      </c>
+      <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
+        <v>2.75</v>
+      </c>
+      <c r="T131">
+        <v>1.825</v>
+      </c>
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>-1</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>0.909</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.875</v>
+      </c>
+      <c r="AA131">
+        <v>0.4125</v>
+      </c>
+      <c r="AB131">
         <v>-0.5</v>
-      </c>
-      <c r="Q131">
-        <v>1.825</v>
-      </c>
-      <c r="R131">
-        <v>1.975</v>
-      </c>
-      <c r="S131">
-        <v>3</v>
-      </c>
-      <c r="T131">
-        <v>1.9</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>0.8</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>0.825</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11903,7 +11903,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6871026</v>
+        <v>6873049</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -11912,76 +11912,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G133">
+        <v>6</v>
+      </c>
+      <c r="H133">
         <v>1</v>
       </c>
-      <c r="H133">
-        <v>2</v>
-      </c>
       <c r="I133" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J133">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K133">
         <v>3.4</v>
       </c>
       <c r="L133">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="M133">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O133">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -13365,7 +13365,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6873073</v>
+        <v>6873065</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13374,76 +13374,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J150">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="K150">
         <v>3.5</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="M150">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N150">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O150">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="P150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q150">
+        <v>1.875</v>
+      </c>
+      <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>2.75</v>
+      </c>
+      <c r="T150">
+        <v>1.95</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>2.5</v>
-      </c>
-      <c r="T150">
-        <v>1.75</v>
-      </c>
-      <c r="U150">
-        <v>1.95</v>
-      </c>
       <c r="V150">
         <v>-1</v>
       </c>
       <c r="W150">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA150">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13451,7 +13451,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6873065</v>
+        <v>6873066</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13460,76 +13460,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J151">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="K151">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L151">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="M151">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N151">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O151">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="P151">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
         <v>2.75</v>
       </c>
       <c r="T151">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U151">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13537,7 +13537,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6873066</v>
+        <v>6873067</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13546,73 +13546,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G152">
+        <v>2</v>
+      </c>
+      <c r="H152">
         <v>3</v>
       </c>
-      <c r="H152">
+      <c r="I152" t="s">
+        <v>55</v>
+      </c>
+      <c r="J152">
+        <v>2.25</v>
+      </c>
+      <c r="K152">
+        <v>3.5</v>
+      </c>
+      <c r="L152">
+        <v>2.75</v>
+      </c>
+      <c r="M152">
+        <v>2.25</v>
+      </c>
+      <c r="N152">
+        <v>3.5</v>
+      </c>
+      <c r="O152">
+        <v>2.7</v>
+      </c>
+      <c r="P152">
+        <v>-0.25</v>
+      </c>
+      <c r="Q152">
+        <v>2.025</v>
+      </c>
+      <c r="R152">
+        <v>1.775</v>
+      </c>
+      <c r="S152">
+        <v>2.5</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>1.8</v>
+      </c>
+      <c r="V152">
+        <v>-1</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.7</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA152">
         <v>1</v>
-      </c>
-      <c r="I152" t="s">
-        <v>53</v>
-      </c>
-      <c r="J152">
-        <v>3</v>
-      </c>
-      <c r="K152">
-        <v>3.6</v>
-      </c>
-      <c r="L152">
-        <v>2.05</v>
-      </c>
-      <c r="M152">
-        <v>3.75</v>
-      </c>
-      <c r="N152">
-        <v>4</v>
-      </c>
-      <c r="O152">
-        <v>1.727</v>
-      </c>
-      <c r="P152">
-        <v>0.75</v>
-      </c>
-      <c r="Q152">
-        <v>1.825</v>
-      </c>
-      <c r="R152">
-        <v>1.975</v>
-      </c>
-      <c r="S152">
-        <v>2.75</v>
-      </c>
-      <c r="T152">
-        <v>1.9</v>
-      </c>
-      <c r="U152">
-        <v>1.9</v>
-      </c>
-      <c r="V152">
-        <v>2.75</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>0.825</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -13623,7 +13623,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6873067</v>
+        <v>6873073</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -13632,73 +13632,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J153">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K153">
         <v>3.5</v>
       </c>
       <c r="L153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M153">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N153">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O153">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P153">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
         <v>2.5</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
         <v>-1</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X153">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -17149,7 +17149,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6871020</v>
+        <v>6873099</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17158,73 +17158,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E194" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J194">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="K194">
         <v>3.4</v>
       </c>
       <c r="L194">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M194">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="N194">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P194">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q194">
+        <v>1.9</v>
+      </c>
+      <c r="R194">
+        <v>1.9</v>
+      </c>
+      <c r="S194">
+        <v>2.75</v>
+      </c>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
         <v>1.8</v>
       </c>
-      <c r="R194">
-        <v>2</v>
-      </c>
-      <c r="S194">
-        <v>3</v>
-      </c>
-      <c r="T194">
-        <v>1.9</v>
-      </c>
-      <c r="U194">
-        <v>1.9</v>
-      </c>
       <c r="V194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W194">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17235,7 +17235,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6873099</v>
+        <v>6873105</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17244,58 +17244,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E195" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="s">
         <v>53</v>
       </c>
       <c r="J195">
-        <v>2.05</v>
+        <v>1.952</v>
       </c>
       <c r="K195">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
+        <v>1.666</v>
+      </c>
+      <c r="N195">
+        <v>3.8</v>
+      </c>
+      <c r="O195">
+        <v>5</v>
+      </c>
+      <c r="P195">
+        <v>-1</v>
+      </c>
+      <c r="Q195">
+        <v>1.95</v>
+      </c>
+      <c r="R195">
+        <v>1.75</v>
+      </c>
+      <c r="S195">
+        <v>3</v>
+      </c>
+      <c r="T195">
+        <v>1.95</v>
+      </c>
+      <c r="U195">
         <v>1.85</v>
       </c>
-      <c r="N195">
-        <v>3.6</v>
-      </c>
-      <c r="O195">
-        <v>4</v>
-      </c>
-      <c r="P195">
-        <v>-0.5</v>
-      </c>
-      <c r="Q195">
-        <v>1.9</v>
-      </c>
-      <c r="R195">
-        <v>1.9</v>
-      </c>
-      <c r="S195">
-        <v>2.75</v>
-      </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
-      <c r="U195">
-        <v>1.8</v>
-      </c>
       <c r="V195">
-        <v>0.8500000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17304,13 +17304,13 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB195">
         <v>-1</v>
@@ -17321,7 +17321,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6873105</v>
+        <v>6871020</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17330,73 +17330,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E196" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J196">
-        <v>1.952</v>
+        <v>2.6</v>
       </c>
       <c r="K196">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L196">
+        <v>2.6</v>
+      </c>
+      <c r="M196">
+        <v>3.25</v>
+      </c>
+      <c r="N196">
         <v>3.75</v>
       </c>
-      <c r="M196">
-        <v>1.666</v>
-      </c>
-      <c r="N196">
-        <v>3.8</v>
-      </c>
       <c r="O196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q196">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R196">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S196">
         <v>3</v>
       </c>
       <c r="T196">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
         <v>-1</v>
@@ -17751,7 +17751,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6873102</v>
+        <v>6873103</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -17760,76 +17760,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J201">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="K201">
         <v>3.25</v>
       </c>
       <c r="L201">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M201">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N201">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O201">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="P201">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q201">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T201">
+        <v>1.925</v>
+      </c>
+      <c r="U201">
         <v>1.875</v>
       </c>
-      <c r="U201">
-        <v>1.925</v>
-      </c>
       <c r="V201">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB201">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17837,7 +17837,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6873103</v>
+        <v>6873102</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -17846,76 +17846,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J202">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="K202">
         <v>3.25</v>
       </c>
       <c r="L202">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N202">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O202">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P202">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q202">
+        <v>1.8</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>2.75</v>
+      </c>
+      <c r="T202">
         <v>1.875</v>
       </c>
-      <c r="R202">
+      <c r="U202">
         <v>1.925</v>
       </c>
-      <c r="S202">
-        <v>2.5</v>
-      </c>
-      <c r="T202">
-        <v>1.925</v>
-      </c>
-      <c r="U202">
-        <v>1.875</v>
-      </c>
       <c r="V202">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
         <v>0.925</v>
-      </c>
-      <c r="AB202">
-        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -28157,7 +28157,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7595706</v>
+        <v>7595930</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -28166,10 +28166,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E322" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F322" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G322">
         <v>2</v>
@@ -28181,43 +28181,43 @@
         <v>53</v>
       </c>
       <c r="J322">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K322">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L322">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M322">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="N322">
         <v>3.5</v>
       </c>
       <c r="O322">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P322">
         <v>-0.5</v>
       </c>
       <c r="Q322">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R322">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S322">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T322">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U322">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V322">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -28226,16 +28226,16 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z322">
         <v>-1</v>
       </c>
       <c r="AA322">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AB322">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="323" spans="1:28">
@@ -28243,7 +28243,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7595930</v>
+        <v>7595706</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -28252,10 +28252,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E323" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F323" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G323">
         <v>2</v>
@@ -28267,43 +28267,43 @@
         <v>53</v>
       </c>
       <c r="J323">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K323">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L323">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M323">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="N323">
         <v>3.5</v>
       </c>
       <c r="O323">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P323">
         <v>-0.5</v>
       </c>
       <c r="Q323">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R323">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S323">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T323">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U323">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V323">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -28312,16 +28312,16 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z323">
         <v>-1</v>
       </c>
       <c r="AA323">
+        <v>0.4</v>
+      </c>
+      <c r="AB323">
         <v>-0.5</v>
-      </c>
-      <c r="AB323">
-        <v>0.425</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -28931,7 +28931,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6994893</v>
+        <v>6993429</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -28940,76 +28940,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E331" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F331" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J331">
-        <v>2.75</v>
+        <v>1.285</v>
       </c>
       <c r="K331">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="L331">
-        <v>2.75</v>
+        <v>9.5</v>
       </c>
       <c r="M331">
-        <v>2.5</v>
+        <v>1.222</v>
       </c>
       <c r="N331">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O331">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P331">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q331">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R331">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S331">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T331">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U331">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V331">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W331">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="AA331">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29017,7 +29017,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6994894</v>
+        <v>6994893</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29026,76 +29026,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E332" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F332" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G332">
         <v>2</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J332">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="K332">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L332">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M332">
         <v>2.5</v>
       </c>
       <c r="N332">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O332">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P332">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q332">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R332">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S332">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T332">
+        <v>1.75</v>
+      </c>
+      <c r="U332">
         <v>1.95</v>
       </c>
-      <c r="U332">
-        <v>1.85</v>
-      </c>
       <c r="V332">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB332">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29103,7 +29103,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6990883</v>
+        <v>6994894</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -29112,58 +29112,58 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E333" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F333" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G333">
         <v>2</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="s">
         <v>53</v>
       </c>
       <c r="J333">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="K333">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L333">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M333">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N333">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O333">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="P333">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q333">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R333">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S333">
         <v>2.75</v>
       </c>
       <c r="T333">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V333">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -29172,16 +29172,16 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z333">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29189,7 +29189,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6993429</v>
+        <v>6990883</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -29198,58 +29198,58 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E334" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F334" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G334">
+        <v>2</v>
+      </c>
+      <c r="H334">
         <v>1</v>
-      </c>
-      <c r="H334">
-        <v>0</v>
       </c>
       <c r="I334" t="s">
         <v>53</v>
       </c>
       <c r="J334">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="K334">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L334">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="M334">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="N334">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="O334">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="P334">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q334">
+        <v>1.9</v>
+      </c>
+      <c r="R334">
+        <v>1.9</v>
+      </c>
+      <c r="S334">
+        <v>2.75</v>
+      </c>
+      <c r="T334">
         <v>1.8</v>
       </c>
-      <c r="R334">
-        <v>2</v>
-      </c>
-      <c r="S334">
-        <v>3.25</v>
-      </c>
-      <c r="T334">
-        <v>1.975</v>
-      </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V334">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W334">
         <v>-1</v>
@@ -29258,16 +29258,16 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z334">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB334">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29705,7 +29705,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7023971</v>
+        <v>7023972</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -29714,58 +29714,58 @@
         <v>45318.5</v>
       </c>
       <c r="E340" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F340" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="s">
         <v>53</v>
       </c>
       <c r="J340">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="K340">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L340">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M340">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N340">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O340">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q340">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R340">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S340">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T340">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U340">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V340">
-        <v>1.875</v>
+        <v>1.375</v>
       </c>
       <c r="W340">
         <v>-1</v>
@@ -29774,16 +29774,16 @@
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB340">
-        <v>0.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:28">
@@ -29791,7 +29791,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7023972</v>
+        <v>7023973</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -29800,13 +29800,13 @@
         <v>45318.5</v>
       </c>
       <c r="E341" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F341" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -29815,43 +29815,43 @@
         <v>53</v>
       </c>
       <c r="J341">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="K341">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L341">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M341">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N341">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O341">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="P341">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q341">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R341">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S341">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T341">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U341">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V341">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="W341">
         <v>-1</v>
@@ -29860,16 +29860,16 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB341">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:28">
@@ -29877,7 +29877,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7023973</v>
+        <v>7023976</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -29886,76 +29886,76 @@
         <v>45318.5</v>
       </c>
       <c r="E342" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F342" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G342">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J342">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="K342">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M342">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="N342">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O342">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P342">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q342">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R342">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S342">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T342">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U342">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V342">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W342">
         <v>-1</v>
       </c>
       <c r="X342">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y342">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA342">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB342">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -29963,7 +29963,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7023977</v>
+        <v>7023979</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -29972,76 +29972,76 @@
         <v>45318.5</v>
       </c>
       <c r="E343" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F343" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G343">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="I343" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J343">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="K343">
         <v>3.5</v>
       </c>
       <c r="L343">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M343">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="N343">
+        <v>3.6</v>
+      </c>
+      <c r="O343">
+        <v>4.5</v>
+      </c>
+      <c r="P343">
+        <v>-0.75</v>
+      </c>
+      <c r="Q343">
+        <v>1.875</v>
+      </c>
+      <c r="R343">
+        <v>1.925</v>
+      </c>
+      <c r="S343">
+        <v>2.25</v>
+      </c>
+      <c r="T343">
+        <v>1.75</v>
+      </c>
+      <c r="U343">
+        <v>1.95</v>
+      </c>
+      <c r="V343">
+        <v>-1</v>
+      </c>
+      <c r="W343">
+        <v>-1</v>
+      </c>
+      <c r="X343">
         <v>3.5</v>
       </c>
-      <c r="O343">
-        <v>3.25</v>
-      </c>
-      <c r="P343">
-        <v>-0.25</v>
-      </c>
-      <c r="Q343">
-        <v>1.8</v>
-      </c>
-      <c r="R343">
-        <v>2</v>
-      </c>
-      <c r="S343">
-        <v>2.75</v>
-      </c>
-      <c r="T343">
-        <v>1.975</v>
-      </c>
-      <c r="U343">
-        <v>1.825</v>
-      </c>
-      <c r="V343">
-        <v>1</v>
-      </c>
-      <c r="W343">
-        <v>-1</v>
-      </c>
-      <c r="X343">
-        <v>-1</v>
-      </c>
       <c r="Y343">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA343">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="344" spans="1:28">
@@ -30135,7 +30135,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7023979</v>
+        <v>7023971</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -30144,76 +30144,76 @@
         <v>45318.5</v>
       </c>
       <c r="E345" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F345" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G345">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J345">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="K345">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L345">
+        <v>2.6</v>
+      </c>
+      <c r="M345">
+        <v>2.875</v>
+      </c>
+      <c r="N345">
         <v>3.8</v>
       </c>
-      <c r="M345">
-        <v>1.65</v>
-      </c>
-      <c r="N345">
-        <v>3.6</v>
-      </c>
       <c r="O345">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="P345">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q345">
+        <v>1.925</v>
+      </c>
+      <c r="R345">
         <v>1.875</v>
       </c>
-      <c r="R345">
-        <v>1.925</v>
-      </c>
       <c r="S345">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T345">
+        <v>1.95</v>
+      </c>
+      <c r="U345">
         <v>1.75</v>
       </c>
-      <c r="U345">
-        <v>1.95</v>
-      </c>
       <c r="V345">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W345">
         <v>-1</v>
       </c>
       <c r="X345">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z345">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB345">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="346" spans="1:28">
@@ -30221,7 +30221,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7023976</v>
+        <v>7023980</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -30230,76 +30230,76 @@
         <v>45318.5</v>
       </c>
       <c r="E346" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F346" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
         <v>0</v>
       </c>
-      <c r="H346">
-        <v>1</v>
-      </c>
       <c r="I346" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J346">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="K346">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L346">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M346">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N346">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O346">
+        <v>1.85</v>
+      </c>
+      <c r="P346">
+        <v>0.5</v>
+      </c>
+      <c r="Q346">
+        <v>1.925</v>
+      </c>
+      <c r="R346">
+        <v>1.875</v>
+      </c>
+      <c r="S346">
         <v>3</v>
       </c>
-      <c r="P346">
-        <v>-0.25</v>
-      </c>
-      <c r="Q346">
-        <v>1.95</v>
-      </c>
-      <c r="R346">
-        <v>1.85</v>
-      </c>
-      <c r="S346">
-        <v>2</v>
-      </c>
       <c r="T346">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U346">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V346">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W346">
         <v>-1</v>
       </c>
       <c r="X346">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z346">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:28">
@@ -30307,7 +30307,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7023980</v>
+        <v>7023981</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -30316,13 +30316,13 @@
         <v>45318.5</v>
       </c>
       <c r="E347" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F347" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -30331,43 +30331,43 @@
         <v>53</v>
       </c>
       <c r="J347">
+        <v>2.375</v>
+      </c>
+      <c r="K347">
+        <v>3.2</v>
+      </c>
+      <c r="L347">
         <v>2.875</v>
       </c>
-      <c r="K347">
-        <v>3.75</v>
-      </c>
-      <c r="L347">
+      <c r="M347">
         <v>2.2</v>
       </c>
-      <c r="M347">
-        <v>3.6</v>
-      </c>
       <c r="N347">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O347">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="P347">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q347">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R347">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S347">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T347">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U347">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V347">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="W347">
         <v>-1</v>
@@ -30376,7 +30376,7 @@
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z347">
         <v>-1</v>
@@ -30385,7 +30385,7 @@
         <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="348" spans="1:28">
@@ -30393,7 +30393,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7023981</v>
+        <v>7023977</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -30402,58 +30402,58 @@
         <v>45318.5</v>
       </c>
       <c r="E348" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F348" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G348">
         <v>2</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348" t="s">
         <v>53</v>
       </c>
       <c r="J348">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="K348">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L348">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M348">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N348">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O348">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P348">
         <v>-0.25</v>
       </c>
       <c r="Q348">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R348">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S348">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T348">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U348">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V348">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W348">
         <v>-1</v>
@@ -30462,16 +30462,16 @@
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z348">
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB348">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="349" spans="1:28">
@@ -30737,7 +30737,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7754359</v>
+        <v>7658751</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -30746,76 +30746,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E352" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F352" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G352">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I352" t="s">
         <v>54</v>
       </c>
       <c r="J352">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K352">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L352">
+        <v>2.6</v>
+      </c>
+      <c r="M352">
+        <v>2.05</v>
+      </c>
+      <c r="N352">
+        <v>3.6</v>
+      </c>
+      <c r="O352">
+        <v>3.1</v>
+      </c>
+      <c r="P352">
+        <v>-0.25</v>
+      </c>
+      <c r="Q352">
+        <v>1.85</v>
+      </c>
+      <c r="R352">
+        <v>1.95</v>
+      </c>
+      <c r="S352">
         <v>3</v>
       </c>
-      <c r="M352">
-        <v>2.45</v>
-      </c>
-      <c r="N352">
-        <v>3.4</v>
-      </c>
-      <c r="O352">
-        <v>2.45</v>
-      </c>
-      <c r="P352">
-        <v>0</v>
-      </c>
-      <c r="Q352">
-        <v>1.9</v>
-      </c>
-      <c r="R352">
-        <v>1.9</v>
-      </c>
-      <c r="S352">
-        <v>2.5</v>
-      </c>
       <c r="T352">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U352">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V352">
         <v>-1</v>
       </c>
       <c r="W352">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z352">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB352">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:28">
@@ -30823,7 +30823,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7658751</v>
+        <v>7754359</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -30832,76 +30832,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E353" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F353" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I353" t="s">
         <v>54</v>
       </c>
       <c r="J353">
+        <v>2.1</v>
+      </c>
+      <c r="K353">
+        <v>3.5</v>
+      </c>
+      <c r="L353">
+        <v>3</v>
+      </c>
+      <c r="M353">
+        <v>2.45</v>
+      </c>
+      <c r="N353">
+        <v>3.4</v>
+      </c>
+      <c r="O353">
+        <v>2.45</v>
+      </c>
+      <c r="P353">
+        <v>0</v>
+      </c>
+      <c r="Q353">
+        <v>1.9</v>
+      </c>
+      <c r="R353">
+        <v>1.9</v>
+      </c>
+      <c r="S353">
+        <v>2.5</v>
+      </c>
+      <c r="T353">
+        <v>1.85</v>
+      </c>
+      <c r="U353">
+        <v>1.95</v>
+      </c>
+      <c r="V353">
+        <v>-1</v>
+      </c>
+      <c r="W353">
         <v>2.4</v>
       </c>
-      <c r="K353">
-        <v>3.4</v>
-      </c>
-      <c r="L353">
-        <v>2.6</v>
-      </c>
-      <c r="M353">
-        <v>2.05</v>
-      </c>
-      <c r="N353">
-        <v>3.6</v>
-      </c>
-      <c r="O353">
-        <v>3.1</v>
-      </c>
-      <c r="P353">
-        <v>-0.25</v>
-      </c>
-      <c r="Q353">
-        <v>1.85</v>
-      </c>
-      <c r="R353">
-        <v>1.95</v>
-      </c>
-      <c r="S353">
-        <v>3</v>
-      </c>
-      <c r="T353">
-        <v>1.975</v>
-      </c>
-      <c r="U353">
-        <v>1.825</v>
-      </c>
-      <c r="V353">
-        <v>-1</v>
-      </c>
-      <c r="W353">
-        <v>2.6</v>
-      </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z353">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA353">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -31425,7 +31425,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7060467</v>
+        <v>7060465</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -31434,55 +31434,55 @@
         <v>45325.5</v>
       </c>
       <c r="E360" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F360" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G360">
         <v>1</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I360" t="s">
         <v>55</v>
       </c>
       <c r="J360">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="K360">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L360">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="M360">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="N360">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O360">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="P360">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q360">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R360">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T360">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U360">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V360">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="Y360">
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA360">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB360">
         <v>-1</v>
@@ -31769,7 +31769,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7060465</v>
+        <v>7060467</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -31778,55 +31778,55 @@
         <v>45325.5</v>
       </c>
       <c r="E364" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F364" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G364">
         <v>1</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="s">
         <v>55</v>
       </c>
       <c r="J364">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="K364">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L364">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="M364">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N364">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O364">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="P364">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q364">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R364">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S364">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T364">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U364">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V364">
         <v>-1</v>
@@ -31835,16 +31835,16 @@
         <v>-1</v>
       </c>
       <c r="X364">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA364">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB364">
         <v>-1</v>
@@ -37703,7 +37703,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7840556</v>
+        <v>7791090</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -37712,76 +37712,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E433" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F433" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G433">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I433" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J433">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K433">
         <v>3.5</v>
       </c>
       <c r="L433">
+        <v>4.333</v>
+      </c>
+      <c r="M433">
+        <v>1.727</v>
+      </c>
+      <c r="N433">
+        <v>3.6</v>
+      </c>
+      <c r="O433">
+        <v>4.333</v>
+      </c>
+      <c r="P433">
+        <v>-0.75</v>
+      </c>
+      <c r="Q433">
+        <v>1.975</v>
+      </c>
+      <c r="R433">
+        <v>1.825</v>
+      </c>
+      <c r="S433">
         <v>3</v>
       </c>
-      <c r="M433">
-        <v>2.25</v>
-      </c>
-      <c r="N433">
-        <v>3.25</v>
-      </c>
-      <c r="O433">
-        <v>2.9</v>
-      </c>
-      <c r="P433">
-        <v>-0.25</v>
-      </c>
-      <c r="Q433">
-        <v>2</v>
-      </c>
-      <c r="R433">
-        <v>1.8</v>
-      </c>
-      <c r="S433">
-        <v>2.25</v>
-      </c>
       <c r="T433">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U433">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V433">
         <v>-1</v>
       </c>
       <c r="W433">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X433">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y433">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z433">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA433">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB433">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:28">
@@ -37789,7 +37789,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7157677</v>
+        <v>7840555</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -37798,10 +37798,10 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E434" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F434" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G434">
         <v>2</v>
@@ -37813,61 +37813,61 @@
         <v>53</v>
       </c>
       <c r="J434">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="K434">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L434">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M434">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="N434">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O434">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="P434">
+        <v>-0.75</v>
+      </c>
+      <c r="Q434">
+        <v>1.85</v>
+      </c>
+      <c r="R434">
+        <v>1.95</v>
+      </c>
+      <c r="S434">
+        <v>3</v>
+      </c>
+      <c r="T434">
+        <v>1.825</v>
+      </c>
+      <c r="U434">
+        <v>1.975</v>
+      </c>
+      <c r="V434">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="W434">
+        <v>-1</v>
+      </c>
+      <c r="X434">
+        <v>-1</v>
+      </c>
+      <c r="Y434">
+        <v>0.425</v>
+      </c>
+      <c r="Z434">
+        <v>-0.5</v>
+      </c>
+      <c r="AA434">
         <v>0</v>
       </c>
-      <c r="Q434">
-        <v>1.75</v>
-      </c>
-      <c r="R434">
-        <v>2.05</v>
-      </c>
-      <c r="S434">
-        <v>2.25</v>
-      </c>
-      <c r="T434">
-        <v>1.975</v>
-      </c>
-      <c r="U434">
-        <v>1.725</v>
-      </c>
-      <c r="V434">
-        <v>1.45</v>
-      </c>
-      <c r="W434">
-        <v>-1</v>
-      </c>
-      <c r="X434">
-        <v>-1</v>
-      </c>
-      <c r="Y434">
-        <v>0.75</v>
-      </c>
-      <c r="Z434">
-        <v>-1</v>
-      </c>
-      <c r="AA434">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB434">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:28">
@@ -37961,7 +37961,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7840555</v>
+        <v>7840556</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -37970,76 +37970,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E436" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F436" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G436">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J436">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K436">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L436">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M436">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N436">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O436">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P436">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q436">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R436">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S436">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T436">
+        <v>1.975</v>
+      </c>
+      <c r="U436">
         <v>1.825</v>
       </c>
-      <c r="U436">
-        <v>1.975</v>
-      </c>
       <c r="V436">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W436">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X436">
         <v>-1</v>
       </c>
       <c r="Y436">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="Z436">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA436">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB436">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="437" spans="1:28">
@@ -38047,7 +38047,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7791090</v>
+        <v>7157677</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -38056,73 +38056,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E437" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F437" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G437">
         <v>2</v>
       </c>
       <c r="H437">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I437" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J437">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="K437">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L437">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M437">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N437">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O437">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P437">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q437">
+        <v>1.75</v>
+      </c>
+      <c r="R437">
+        <v>2.05</v>
+      </c>
+      <c r="S437">
+        <v>2.25</v>
+      </c>
+      <c r="T437">
         <v>1.975</v>
       </c>
-      <c r="R437">
-        <v>1.825</v>
-      </c>
-      <c r="S437">
-        <v>3</v>
-      </c>
-      <c r="T437">
-        <v>1.875</v>
-      </c>
       <c r="U437">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="V437">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W437">
         <v>-1</v>
       </c>
       <c r="X437">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y437">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z437">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA437">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB437">
         <v>-1</v>
@@ -43207,7 +43207,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>7281442</v>
+        <v>7281434</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -43216,76 +43216,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E497" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F497" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497">
         <v>0</v>
       </c>
-      <c r="H497">
-        <v>1</v>
-      </c>
       <c r="I497" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J497">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="K497">
         <v>3.4</v>
       </c>
       <c r="L497">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="M497">
+        <v>2.1</v>
+      </c>
+      <c r="N497">
+        <v>3.3</v>
+      </c>
+      <c r="O497">
+        <v>3.1</v>
+      </c>
+      <c r="P497">
+        <v>-0.25</v>
+      </c>
+      <c r="Q497">
+        <v>1.9</v>
+      </c>
+      <c r="R497">
+        <v>1.9</v>
+      </c>
+      <c r="S497">
         <v>2.5</v>
       </c>
-      <c r="N497">
-        <v>3.4</v>
-      </c>
-      <c r="O497">
-        <v>2.55</v>
-      </c>
-      <c r="P497">
-        <v>0</v>
-      </c>
-      <c r="Q497">
-        <v>1.85</v>
-      </c>
-      <c r="R497">
-        <v>1.95</v>
-      </c>
-      <c r="S497">
-        <v>2.75</v>
-      </c>
       <c r="T497">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U497">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V497">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W497">
         <v>-1</v>
       </c>
       <c r="X497">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y497">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z497">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA497">
         <v>-1</v>
       </c>
       <c r="AB497">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="498" spans="1:28">
@@ -43293,7 +43293,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>7281433</v>
+        <v>7281441</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -43302,76 +43302,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E498" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F498" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G498">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J498">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="K498">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L498">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M498">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N498">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O498">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P498">
         <v>-1</v>
       </c>
       <c r="Q498">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R498">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S498">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T498">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U498">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V498">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W498">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X498">
         <v>-1</v>
       </c>
       <c r="Y498">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z498">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA498">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB498">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499" spans="1:28">
@@ -43379,7 +43379,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>7281441</v>
+        <v>7281433</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -43388,76 +43388,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E499" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F499" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G499">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J499">
+        <v>1.533</v>
+      </c>
+      <c r="K499">
+        <v>4.2</v>
+      </c>
+      <c r="L499">
+        <v>4.5</v>
+      </c>
+      <c r="M499">
+        <v>1.533</v>
+      </c>
+      <c r="N499">
+        <v>4.2</v>
+      </c>
+      <c r="O499">
+        <v>5</v>
+      </c>
+      <c r="P499">
+        <v>-1</v>
+      </c>
+      <c r="Q499">
         <v>1.85</v>
       </c>
-      <c r="K499">
-        <v>3.5</v>
-      </c>
-      <c r="L499">
-        <v>3.5</v>
-      </c>
-      <c r="M499">
-        <v>1.571</v>
-      </c>
-      <c r="N499">
-        <v>4</v>
-      </c>
-      <c r="O499">
-        <v>4.75</v>
-      </c>
-      <c r="P499">
-        <v>-1</v>
-      </c>
-      <c r="Q499">
-        <v>1.975</v>
-      </c>
       <c r="R499">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S499">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T499">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U499">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V499">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W499">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X499">
         <v>-1</v>
       </c>
       <c r="Y499">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z499">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA499">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB499">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="500" spans="1:28">
@@ -43465,7 +43465,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>7281434</v>
+        <v>7281442</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -43474,76 +43474,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E500" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F500" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
         <v>1</v>
       </c>
-      <c r="H500">
-        <v>0</v>
-      </c>
       <c r="I500" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J500">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="K500">
         <v>3.4</v>
       </c>
       <c r="L500">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="M500">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N500">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O500">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="P500">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q500">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R500">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S500">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T500">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U500">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V500">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W500">
         <v>-1</v>
       </c>
       <c r="X500">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y500">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z500">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA500">
         <v>-1</v>
       </c>
       <c r="AB500">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="501" spans="1:28">
@@ -44927,7 +44927,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>7886639</v>
+        <v>7977562</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -44936,58 +44936,58 @@
         <v>45391.65625</v>
       </c>
       <c r="E517" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F517" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G517">
         <v>3</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I517" t="s">
         <v>53</v>
       </c>
       <c r="J517">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="K517">
         <v>3.5</v>
       </c>
       <c r="L517">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M517">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N517">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O517">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P517">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q517">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R517">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S517">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T517">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U517">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V517">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="W517">
         <v>-1</v>
@@ -44996,16 +44996,16 @@
         <v>-1</v>
       </c>
       <c r="Y517">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z517">
         <v>-1</v>
       </c>
       <c r="AA517">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB517">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="518" spans="1:28">
@@ -45013,7 +45013,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7977562</v>
+        <v>7886639</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -45022,58 +45022,58 @@
         <v>45391.65625</v>
       </c>
       <c r="E518" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F518" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G518">
         <v>3</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="s">
         <v>53</v>
       </c>
       <c r="J518">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K518">
         <v>3.5</v>
       </c>
       <c r="L518">
+        <v>3</v>
+      </c>
+      <c r="M518">
+        <v>2.4</v>
+      </c>
+      <c r="N518">
+        <v>3.5</v>
+      </c>
+      <c r="O518">
         <v>2.6</v>
       </c>
-      <c r="M518">
-        <v>2.05</v>
-      </c>
-      <c r="N518">
-        <v>3.6</v>
-      </c>
-      <c r="O518">
-        <v>3.1</v>
-      </c>
       <c r="P518">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q518">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R518">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S518">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T518">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U518">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V518">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="W518">
         <v>-1</v>
@@ -45082,16 +45082,16 @@
         <v>-1</v>
       </c>
       <c r="Y518">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z518">
         <v>-1</v>
       </c>
       <c r="AA518">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB518">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:28">
@@ -45099,7 +45099,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7820458</v>
+        <v>7841222</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -45108,76 +45108,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E519" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F519" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G519">
         <v>1</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J519">
-        <v>3.7</v>
+        <v>1.869</v>
       </c>
       <c r="K519">
         <v>3.6</v>
       </c>
       <c r="L519">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="M519">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N519">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O519">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="P519">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q519">
+        <v>1.975</v>
+      </c>
+      <c r="R519">
         <v>1.825</v>
-      </c>
-      <c r="R519">
-        <v>1.975</v>
       </c>
       <c r="S519">
         <v>2.75</v>
       </c>
       <c r="T519">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U519">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V519">
         <v>-1</v>
       </c>
       <c r="W519">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X519">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y519">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z519">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA519">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB519">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="520" spans="1:28">
@@ -45185,7 +45185,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>7841222</v>
+        <v>7820458</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -45194,76 +45194,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E520" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F520" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G520">
         <v>1</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J520">
-        <v>1.869</v>
+        <v>3.7</v>
       </c>
       <c r="K520">
         <v>3.6</v>
       </c>
       <c r="L520">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="M520">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N520">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O520">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="P520">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q520">
+        <v>1.825</v>
+      </c>
+      <c r="R520">
         <v>1.975</v>
-      </c>
-      <c r="R520">
-        <v>1.825</v>
       </c>
       <c r="S520">
         <v>2.75</v>
       </c>
       <c r="T520">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U520">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V520">
         <v>-1</v>
       </c>
       <c r="W520">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X520">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y520">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z520">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA520">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB520">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="521" spans="1:28">
@@ -46561,7 +46561,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>7903080</v>
+        <v>8020346</v>
       </c>
       <c r="C536" t="s">
         <v>28</v>
@@ -46570,55 +46570,55 @@
         <v>45398.65625</v>
       </c>
       <c r="E536" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F536" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I536" t="s">
         <v>55</v>
       </c>
       <c r="J536">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="K536">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L536">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M536">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N536">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O536">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="P536">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q536">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R536">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S536">
         <v>3</v>
       </c>
       <c r="T536">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U536">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V536">
         <v>-1</v>
@@ -46627,19 +46627,19 @@
         <v>-1</v>
       </c>
       <c r="X536">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y536">
         <v>-1</v>
       </c>
       <c r="Z536">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA536">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB536">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537" spans="1:28">
@@ -46647,7 +46647,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>8079414</v>
+        <v>7903080</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -46656,76 +46656,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E537" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F537" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G537">
         <v>0</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I537" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J537">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="K537">
+        <v>3.75</v>
+      </c>
+      <c r="L537">
         <v>3.4</v>
       </c>
-      <c r="L537">
-        <v>2.2</v>
-      </c>
       <c r="M537">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N537">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O537">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="P537">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q537">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R537">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S537">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T537">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U537">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V537">
         <v>-1</v>
       </c>
       <c r="W537">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X537">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y537">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z537">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA537">
         <v>-1</v>
       </c>
       <c r="AB537">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="538" spans="1:28">
@@ -46733,7 +46733,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>8020346</v>
+        <v>8079414</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -46742,76 +46742,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E538" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F538" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H538">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J538">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="K538">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L538">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="M538">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N538">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O538">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="P538">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q538">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R538">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S538">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T538">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U538">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V538">
         <v>-1</v>
       </c>
       <c r="W538">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X538">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y538">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z538">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA538">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB538">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="539" spans="1:28">
@@ -48391,13 +48391,13 @@
         <v>2.75</v>
       </c>
       <c r="M557">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N557">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O557">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="P557">
         <v>0</v>
@@ -48412,10 +48412,10 @@
         <v>2.75</v>
       </c>
       <c r="T557">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U557">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V557">
         <v>0</v>
